--- a/capiq_data/in_process_data/IQ33254.xlsx
+++ b/capiq_data/in_process_data/IQ33254.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9341F-2FB6-448D-8F1A-86BFC44A1BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D397C18-5E1A-47DC-A031-0FCEA560ACD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"fc656f3d-d12a-4937-8a09-86db780d28f6"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"cc2aff7d-98cd-40e6-96eb-b808284955e8"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>135.72900000000001</v>
+        <v>-105.13500000000001</v>
       </c>
       <c r="D2">
-        <v>731.31399999999996</v>
+        <v>228.16900000000001</v>
       </c>
       <c r="E2">
-        <v>162.42599999999999</v>
+        <v>13.888999999999999</v>
       </c>
       <c r="F2">
-        <v>478.41199999999998</v>
+        <v>34.673999999999999</v>
       </c>
       <c r="G2">
-        <v>1957.4639999999999</v>
+        <v>131.22300000000001</v>
       </c>
       <c r="H2">
-        <v>2905.953</v>
+        <v>195.078</v>
       </c>
       <c r="I2">
-        <v>90.311000000000007</v>
+        <v>40.691000000000003</v>
       </c>
       <c r="J2">
-        <v>476.26799999999997</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>471.16800000000001</v>
+        <v>79.296999999999997</v>
       </c>
       <c r="O2">
-        <v>1046.866</v>
+        <v>84.405000000000001</v>
       </c>
       <c r="P2">
-        <v>476.44299999999998</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-174.154</v>
+        <v>-15.727</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>3400</v>
+        <v>359</v>
       </c>
       <c r="T2">
-        <v>1859.087</v>
+        <v>110.673</v>
       </c>
       <c r="U2">
-        <v>358.96699999999998</v>
+        <v>77.024000000000001</v>
       </c>
       <c r="V2">
-        <v>179.917</v>
+        <v>-31.855</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>38.433</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-377.27699999999999</v>
+        <v>18.105</v>
       </c>
       <c r="AA2">
-        <v>135.72900000000001</v>
+        <v>-105.13500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>104.79</v>
+        <v>-13.773999999999999</v>
       </c>
       <c r="D3">
-        <v>809.32</v>
+        <v>269.70400000000001</v>
       </c>
       <c r="E3">
-        <v>221.97800000000001</v>
+        <v>20.706</v>
       </c>
       <c r="F3">
-        <v>505.80799999999999</v>
+        <v>43.115000000000002</v>
       </c>
       <c r="G3">
-        <v>2105.67</v>
+        <v>178.499</v>
       </c>
       <c r="H3">
-        <v>3065.3510000000001</v>
+        <v>240.56200000000001</v>
       </c>
       <c r="I3">
-        <v>115.512</v>
+        <v>51.377000000000002</v>
       </c>
       <c r="J3">
-        <v>93.569000000000003</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1086.6959999999999</v>
+        <v>82.984999999999999</v>
       </c>
       <c r="O3">
-        <v>1283.412</v>
+        <v>87.731999999999999</v>
       </c>
       <c r="P3">
-        <v>575.21299999999997</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>192.107</v>
+        <v>21.673999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1781.9390000000001</v>
+        <v>152.83000000000001</v>
       </c>
       <c r="U3">
-        <v>551.07399999999996</v>
+        <v>98.697999999999993</v>
       </c>
       <c r="V3">
-        <v>276.21899999999999</v>
+        <v>-6.2569999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-147.19800000000001</v>
+        <v>49.926000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>145.55500000000001</v>
+        <v>-15.233000000000001</v>
       </c>
       <c r="AA3">
-        <v>104.79</v>
+        <v>-13.773999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>256.36799999999999</v>
+        <v>2.8159999999999998</v>
       </c>
       <c r="D4">
-        <v>1102.7159999999999</v>
+        <v>364.75599999999997</v>
       </c>
       <c r="E4">
-        <v>321.358</v>
+        <v>25.838999999999999</v>
       </c>
       <c r="F4">
-        <v>749.22699999999998</v>
+        <v>60.106000000000002</v>
       </c>
       <c r="G4">
-        <v>2376.4349999999999</v>
+        <v>210.97900000000001</v>
       </c>
       <c r="H4">
-        <v>3360.0749999999998</v>
+        <v>268.661</v>
       </c>
       <c r="I4">
-        <v>127.794</v>
+        <v>69.531000000000006</v>
       </c>
       <c r="J4">
-        <v>88.221999999999994</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1126.193</v>
+        <v>106.902</v>
       </c>
       <c r="O4">
-        <v>1302.952</v>
+        <v>110.691</v>
       </c>
       <c r="P4">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>60.174999999999997</v>
+        <v>25.585999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2057.123</v>
+        <v>157.97</v>
       </c>
       <c r="U4">
-        <v>611.24900000000002</v>
+        <v>124.28400000000001</v>
       </c>
       <c r="V4">
-        <v>223.28299999999999</v>
+        <v>27.486999999999998</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-8.6489999999999991</v>
+        <v>-1.377</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-126.735</v>
+        <v>-4.0389999999999997</v>
       </c>
       <c r="AA4">
-        <v>256.36799999999999</v>
+        <v>2.8159999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>469.49700000000001</v>
+        <v>4.9770000000000003</v>
       </c>
       <c r="D5">
-        <v>1452.8040000000001</v>
+        <v>301.98899999999998</v>
       </c>
       <c r="E5">
-        <v>345.339</v>
+        <v>15.021000000000001</v>
       </c>
       <c r="F5">
-        <v>1100.1479999999999</v>
+        <v>50.432000000000002</v>
       </c>
       <c r="G5">
-        <v>2881.9769999999999</v>
+        <v>185.976</v>
       </c>
       <c r="H5">
-        <v>3815.5729999999999</v>
+        <v>241.685</v>
       </c>
       <c r="I5">
-        <v>169.54499999999999</v>
+        <v>34.930999999999997</v>
       </c>
       <c r="J5">
-        <v>82.831000000000003</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1181.261</v>
+        <v>70.358000000000004</v>
       </c>
       <c r="O5">
-        <v>1348.6590000000001</v>
+        <v>73.724999999999994</v>
       </c>
       <c r="P5">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-190.083</v>
+        <v>-25.271000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2466.9140000000002</v>
+        <v>167.96</v>
       </c>
       <c r="U5">
-        <v>421.166</v>
+        <v>99.013000000000005</v>
       </c>
       <c r="V5">
-        <v>560.46900000000005</v>
+        <v>-16.062000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-0.73399999999999999</v>
+        <v>4.2469999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-719.48299999999995</v>
+        <v>-15.064</v>
       </c>
       <c r="AA5">
-        <v>469.49900000000002</v>
+        <v>4.9770000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>225.71600000000001</v>
+        <v>-1.3220000000000001</v>
       </c>
       <c r="D6">
-        <v>990.77099999999996</v>
+        <v>235.304</v>
       </c>
       <c r="E6">
-        <v>264.45299999999997</v>
+        <v>15.664999999999999</v>
       </c>
       <c r="F6">
-        <v>724.69799999999998</v>
+        <v>39.253</v>
       </c>
       <c r="G6">
-        <v>3066.8440000000001</v>
+        <v>185.31100000000001</v>
       </c>
       <c r="H6">
-        <v>3970.6709999999998</v>
+        <v>262.19</v>
       </c>
       <c r="I6">
-        <v>146.86699999999999</v>
+        <v>45.941000000000003</v>
       </c>
       <c r="J6">
-        <v>77.36</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1105.798</v>
+        <v>87.296000000000006</v>
       </c>
       <c r="O6">
-        <v>1269.3309999999999</v>
+        <v>90.134</v>
       </c>
       <c r="P6">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>211.67</v>
+        <v>0.93</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5000</v>
+        <v>360</v>
       </c>
       <c r="T6">
-        <v>2701.34</v>
+        <v>172.05600000000001</v>
       </c>
       <c r="U6">
-        <v>632.83600000000001</v>
+        <v>99.942999999999998</v>
       </c>
       <c r="V6">
-        <v>281.84100000000001</v>
+        <v>22.928000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>5.5540000000000003</v>
+        <v>-1.7969999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-75.171000000000006</v>
+        <v>-3.7719999999999998</v>
       </c>
       <c r="AA6">
-        <v>225.71600000000001</v>
+        <v>-1.3220000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>181.97</v>
+        <v>5.7409999999999997</v>
       </c>
       <c r="D7">
-        <v>1037.2470000000001</v>
+        <v>261.88499999999999</v>
       </c>
       <c r="E7">
-        <v>324.56200000000001</v>
+        <v>20.218</v>
       </c>
       <c r="F7">
-        <v>743.28800000000001</v>
+        <v>41.993000000000002</v>
       </c>
       <c r="G7">
-        <v>4203.0619999999999</v>
+        <v>208.59399999999999</v>
       </c>
       <c r="H7">
-        <v>5092.8270000000002</v>
+        <v>282.15100000000001</v>
       </c>
       <c r="I7">
-        <v>173.98400000000001</v>
+        <v>62.177</v>
       </c>
       <c r="J7">
-        <v>938.37699999999995</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1290.229</v>
+        <v>98.977000000000004</v>
       </c>
       <c r="O7">
-        <v>2317.8519999999999</v>
+        <v>101.342</v>
       </c>
       <c r="P7">
-        <v>1441.569</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>559.23900000000003</v>
+        <v>-7.8920000000000003</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2774.9749999999999</v>
+        <v>180.809</v>
       </c>
       <c r="U7">
-        <v>1192.075</v>
+        <v>92.051000000000002</v>
       </c>
       <c r="V7">
-        <v>182.38</v>
+        <v>14.074999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>730.53300000000002</v>
+        <v>2.2629999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-376.101</v>
+        <v>-19.058</v>
       </c>
       <c r="AA7">
-        <v>181.97</v>
+        <v>5.7409999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>352.34699999999998</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="D8">
-        <v>1326.759</v>
+        <v>304.45600000000002</v>
       </c>
       <c r="E8">
-        <v>429.52</v>
+        <v>21.977</v>
       </c>
       <c r="F8">
-        <v>1004.1420000000001</v>
+        <v>48.148000000000003</v>
       </c>
       <c r="G8">
-        <v>4578.299</v>
+        <v>210.78800000000001</v>
       </c>
       <c r="H8">
-        <v>5428.8059999999996</v>
+        <v>282.13400000000001</v>
       </c>
       <c r="I8">
-        <v>201.203</v>
+        <v>55.421999999999997</v>
       </c>
       <c r="J8">
-        <v>937.84100000000001</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1366.635</v>
+        <v>92.694000000000003</v>
       </c>
       <c r="O8">
-        <v>2390.835</v>
+        <v>94.177000000000007</v>
       </c>
       <c r="P8">
-        <v>1446.6669999999999</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-379.28899999999999</v>
+        <v>6.0890000000000004</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3037.971</v>
+        <v>187.95699999999999</v>
       </c>
       <c r="U8">
-        <v>812.78599999999994</v>
+        <v>98.14</v>
       </c>
       <c r="V8">
-        <v>431.60599999999999</v>
+        <v>2.7309999999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-52.994999999999997</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-743.08</v>
+        <v>5.8689999999999998</v>
       </c>
       <c r="AA8">
-        <v>352.34699999999998</v>
+        <v>6.3090000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>596.58600000000001</v>
+        <v>-23.823</v>
       </c>
       <c r="D9">
-        <v>1706.31</v>
+        <v>239.964</v>
       </c>
       <c r="E9">
-        <v>493.77699999999999</v>
+        <v>16.654</v>
       </c>
       <c r="F9">
-        <v>1401.3009999999999</v>
+        <v>37.741</v>
       </c>
       <c r="G9">
-        <v>5365.7290000000003</v>
+        <v>178.23099999999999</v>
       </c>
       <c r="H9">
-        <v>6217.8090000000002</v>
+        <v>223.81800000000001</v>
       </c>
       <c r="I9">
-        <v>240.17599999999999</v>
+        <v>40.972000000000001</v>
       </c>
       <c r="J9">
-        <v>937.26599999999996</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1475.34</v>
+        <v>70.328000000000003</v>
       </c>
       <c r="O9">
-        <v>2506.7240000000002</v>
+        <v>71.328999999999994</v>
       </c>
       <c r="P9">
-        <v>1451.808</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>85.683999999999997</v>
+        <v>-31.283000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>3711.085</v>
+        <v>152.489</v>
       </c>
       <c r="U9">
-        <v>898.47</v>
+        <v>66.856999999999999</v>
       </c>
       <c r="V9">
-        <v>674.94500000000005</v>
+        <v>-14.808999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.63500000000000001</v>
+        <v>-11.643000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-601.68299999999999</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="AA9">
-        <v>596.58600000000001</v>
+        <v>-23.823</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>288.66300000000001</v>
+        <v>-7.4109999999999996</v>
       </c>
       <c r="D10">
-        <v>1190.6400000000001</v>
+        <v>197.30099999999999</v>
       </c>
       <c r="E10">
-        <v>367.512</v>
+        <v>13.635999999999999</v>
       </c>
       <c r="F10">
-        <v>955.95</v>
+        <v>30.484000000000002</v>
       </c>
       <c r="G10">
-        <v>5682.375</v>
+        <v>169.56800000000001</v>
       </c>
       <c r="H10">
-        <v>6569.7420000000002</v>
+        <v>211.16200000000001</v>
       </c>
       <c r="I10">
-        <v>184.648</v>
+        <v>35.375</v>
       </c>
       <c r="J10">
-        <v>936.65099999999995</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1461.7260000000001</v>
+        <v>65.326999999999998</v>
       </c>
       <c r="O10">
-        <v>2512.48</v>
+        <v>66.042000000000002</v>
       </c>
       <c r="P10">
-        <v>1456.9949999999999</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>637.87900000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>7000</v>
+        <v>290</v>
       </c>
       <c r="T10">
-        <v>4057.2620000000002</v>
+        <v>145.12</v>
       </c>
       <c r="U10">
-        <v>1536.3489999999999</v>
+        <v>67.182000000000002</v>
       </c>
       <c r="V10">
-        <v>496.81900000000002</v>
+        <v>-1.1830000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-9.3179999999999996</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>167.78100000000001</v>
+        <v>3.3239999999999998</v>
       </c>
       <c r="AA10">
-        <v>288.66300000000001</v>
+        <v>-7.4109999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>244.27099999999999</v>
+        <v>-7.7309999999999999</v>
       </c>
       <c r="D11">
-        <v>1302.0119999999999</v>
+        <v>200.48699999999999</v>
       </c>
       <c r="E11">
-        <v>471.80700000000002</v>
+        <v>16.106000000000002</v>
       </c>
       <c r="F11">
-        <v>1028.365</v>
+        <v>32.987000000000002</v>
       </c>
       <c r="G11">
-        <v>6030.4520000000002</v>
+        <v>162.12799999999999</v>
       </c>
       <c r="H11">
-        <v>6855.1270000000004</v>
+        <v>208.25800000000001</v>
       </c>
       <c r="I11">
-        <v>250.54599999999999</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="J11">
-        <v>935.99699999999996</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1605.3389999999999</v>
+        <v>63.835999999999999</v>
       </c>
       <c r="O11">
-        <v>2673.3989999999999</v>
+        <v>64.257999999999996</v>
       </c>
       <c r="P11">
-        <v>1462.2280000000001</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>74.861000000000004</v>
+        <v>-14.622</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>4181.7280000000001</v>
+        <v>144</v>
       </c>
       <c r="U11">
-        <v>1611.21</v>
+        <v>52.56</v>
       </c>
       <c r="V11">
-        <v>183.11699999999999</v>
+        <v>-0.84</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-70.971999999999994</v>
+        <v>1.4E-2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>17.271000000000001</v>
+        <v>-14.693</v>
       </c>
       <c r="AA11">
-        <v>244.27099999999999</v>
+        <v>-7.7309999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>437.32600000000002</v>
+        <v>7.6890000000000001</v>
       </c>
       <c r="D12">
-        <v>1680.2380000000001</v>
+        <v>239.566</v>
       </c>
       <c r="E12">
-        <v>649.25</v>
+        <v>23.565000000000001</v>
       </c>
       <c r="F12">
-        <v>1383.855</v>
+        <v>40.494</v>
       </c>
       <c r="G12">
-        <v>6926.15</v>
+        <v>180.876</v>
       </c>
       <c r="H12">
-        <v>9867.3709999999992</v>
+        <v>229.006</v>
       </c>
       <c r="I12">
-        <v>316.25099999999998</v>
+        <v>46.863</v>
       </c>
       <c r="J12">
-        <v>1762.89</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1771.4369999999999</v>
+        <v>72.293000000000006</v>
       </c>
       <c r="O12">
-        <v>4009.7109999999998</v>
+        <v>72.569000000000003</v>
       </c>
       <c r="P12">
-        <v>2295.096</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>151.00399999999999</v>
+        <v>16.731999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>5857.66</v>
+        <v>156.43700000000001</v>
       </c>
       <c r="U12">
-        <v>1762.2139999999999</v>
+        <v>69.292000000000002</v>
       </c>
       <c r="V12">
-        <v>593.38199999999995</v>
+        <v>8.8070000000000004</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>524.51400000000001</v>
+        <v>4.6630000000000003</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-591.17999999999995</v>
+        <v>15.855</v>
       </c>
       <c r="AA12">
-        <v>437.32600000000002</v>
+        <v>7.6890000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>832.98900000000003</v>
+        <v>9.73</v>
       </c>
       <c r="D13">
-        <v>2269.9029999999998</v>
+        <v>243.441</v>
       </c>
       <c r="E13">
-        <v>706.23400000000004</v>
+        <v>18.809000000000001</v>
       </c>
       <c r="F13">
-        <v>1989.0650000000001</v>
+        <v>40.648000000000003</v>
       </c>
       <c r="G13">
-        <v>7489.0469999999996</v>
+        <v>309.625</v>
       </c>
       <c r="H13">
-        <v>10445.655000000001</v>
+        <v>362.27800000000002</v>
       </c>
       <c r="I13">
-        <v>312.89600000000002</v>
+        <v>38.466999999999999</v>
       </c>
       <c r="J13">
-        <v>1767.7570000000001</v>
+        <v>125</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1825.8440000000001</v>
+        <v>64.539000000000001</v>
       </c>
       <c r="O13">
-        <v>4049.0329999999999</v>
+        <v>190.084</v>
       </c>
       <c r="P13">
-        <v>2306.0230000000001</v>
+        <v>125</v>
       </c>
       <c r="Q13">
-        <v>-666.12</v>
+        <v>46.01</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>6396.6220000000003</v>
+        <v>172.19399999999999</v>
       </c>
       <c r="U13">
-        <v>1096.0940000000001</v>
+        <v>115.30200000000001</v>
       </c>
       <c r="V13">
-        <v>970.46400000000006</v>
+        <v>11.114000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-451.56099999999998</v>
+        <v>126.52500000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-1184.684</v>
+        <v>-84.747</v>
       </c>
       <c r="AA13">
-        <v>832.98900000000003</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>378.077</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="D14">
-        <v>1541.153</v>
+        <v>180.167</v>
       </c>
       <c r="E14">
-        <v>535.96199999999999</v>
+        <v>10.782</v>
       </c>
       <c r="F14">
-        <v>1327.001</v>
+        <v>31.815999999999999</v>
       </c>
       <c r="G14">
-        <v>7480.9409999999998</v>
+        <v>283.51299999999998</v>
       </c>
       <c r="H14">
-        <v>10444.459999999999</v>
+        <v>337.78399999999999</v>
       </c>
       <c r="I14">
-        <v>247.345</v>
+        <v>25.061</v>
       </c>
       <c r="J14">
-        <v>1750.58</v>
+        <v>124.524</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1381.7449999999999</v>
+        <v>49.613999999999997</v>
       </c>
       <c r="O14">
-        <v>3534.7310000000002</v>
+        <v>175.20699999999999</v>
       </c>
       <c r="P14">
-        <v>1902.511</v>
+        <v>124.524</v>
       </c>
       <c r="Q14">
-        <v>193.9</v>
+        <v>-21.57</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>9500</v>
+        <v>293</v>
       </c>
       <c r="T14">
-        <v>6909.7290000000003</v>
+        <v>162.577</v>
       </c>
       <c r="U14">
-        <v>1289.9939999999999</v>
+        <v>93.731999999999999</v>
       </c>
       <c r="V14">
-        <v>554.47299999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-405.49200000000002</v>
+        <v>-12.371</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>94.075999999999993</v>
+        <v>-3.7440000000000002</v>
       </c>
       <c r="AA14">
-        <v>378.077</v>
+        <v>2.2280000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>331.21800000000002</v>
+        <v>5.1029999999999998</v>
       </c>
       <c r="D15">
-        <v>1641.8019999999999</v>
+        <v>224.131</v>
       </c>
       <c r="E15">
-        <v>627.16</v>
+        <v>19.052</v>
       </c>
       <c r="F15">
-        <v>1406.471</v>
+        <v>43.374000000000002</v>
       </c>
       <c r="G15">
-        <v>7855.94</v>
+        <v>300.53899999999999</v>
       </c>
       <c r="H15">
-        <v>10813.683999999999</v>
+        <v>353.209</v>
       </c>
       <c r="I15">
-        <v>299.411</v>
+        <v>38.023000000000003</v>
       </c>
       <c r="J15">
-        <v>1757.4780000000001</v>
+        <v>124.996</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-58.448999999999998</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1430.989</v>
+        <v>59.268000000000001</v>
       </c>
       <c r="O15">
-        <v>3604.2750000000001</v>
+        <v>184.69900000000001</v>
       </c>
       <c r="P15">
-        <v>1855.1849999999999</v>
+        <v>124.996</v>
       </c>
       <c r="Q15">
-        <v>-1.8440000000000001</v>
+        <v>82.36</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>7209.4089999999997</v>
+        <v>168.51</v>
       </c>
       <c r="U15">
-        <v>1288.1500000000001</v>
+        <v>176.09200000000001</v>
       </c>
       <c r="V15">
-        <v>177.00399999999999</v>
+        <v>10.666</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-141.917</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>39.966000000000001</v>
+        <v>72.16</v>
       </c>
       <c r="AA15">
-        <v>331.21800000000002</v>
+        <v>5.1029999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>576.45100000000002</v>
+        <v>11.401</v>
       </c>
       <c r="D16">
-        <v>2123.5749999999998</v>
+        <v>259.38900000000001</v>
       </c>
       <c r="E16">
-        <v>841.13300000000004</v>
+        <v>23.733000000000001</v>
       </c>
       <c r="F16">
-        <v>1882.9960000000001</v>
+        <v>53.779000000000003</v>
       </c>
       <c r="G16">
-        <v>8508.759</v>
+        <v>416.05700000000002</v>
       </c>
       <c r="H16">
-        <v>11600.323</v>
+        <v>494.61200000000002</v>
       </c>
       <c r="I16">
-        <v>340.90300000000002</v>
+        <v>49.38</v>
       </c>
       <c r="J16">
-        <v>1765.6990000000001</v>
+        <v>223.34800000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1507.2449999999999</v>
+        <v>84.001000000000005</v>
       </c>
       <c r="O16">
-        <v>3776.2910000000002</v>
+        <v>309.37799999999999</v>
       </c>
       <c r="P16">
-        <v>1807.0150000000001</v>
+        <v>223.34800000000001</v>
       </c>
       <c r="Q16">
-        <v>2215.7489999999998</v>
+        <v>-19.786000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>7824.0320000000002</v>
+        <v>185.23400000000001</v>
       </c>
       <c r="U16">
-        <v>3503.8989999999999</v>
+        <v>156.30600000000001</v>
       </c>
       <c r="V16">
-        <v>689.98099999999999</v>
+        <v>10.163</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-51.331000000000003</v>
+        <v>102.349</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1733.412</v>
+        <v>-127.512</v>
       </c>
       <c r="AA16">
-        <v>576.45100000000002</v>
+        <v>11.401</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1062.2529999999999</v>
+        <v>10.004</v>
       </c>
       <c r="D17">
-        <v>2836.4969999999998</v>
+        <v>235.88200000000001</v>
       </c>
       <c r="E17">
-        <v>843.56</v>
+        <v>24.146000000000001</v>
       </c>
       <c r="F17">
-        <v>2619.9780000000001</v>
+        <v>51.103999999999999</v>
       </c>
       <c r="G17">
-        <v>7303.8649999999998</v>
+        <v>278.99900000000002</v>
       </c>
       <c r="H17">
-        <v>15184.38</v>
+        <v>537.85299999999995</v>
       </c>
       <c r="I17">
-        <v>525.44100000000003</v>
+        <v>50.64</v>
       </c>
       <c r="J17">
-        <v>3888.0189999999998</v>
+        <v>224.572</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1589.145</v>
+        <v>86.646000000000001</v>
       </c>
       <c r="O17">
-        <v>6451.2690000000002</v>
+        <v>337.16</v>
       </c>
       <c r="P17">
-        <v>3925.8</v>
+        <v>224.572</v>
       </c>
       <c r="Q17">
-        <v>1539.825</v>
+        <v>-79.025000000000006</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>8733.1110000000008</v>
+        <v>200.69300000000001</v>
       </c>
       <c r="U17">
-        <v>5043.7240000000002</v>
+        <v>77.281000000000006</v>
       </c>
       <c r="V17">
-        <v>1292.1320000000001</v>
+        <v>15.461</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>2118.4160000000002</v>
+        <v>3.4889999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>602.01900000000001</v>
+        <v>62.143999999999998</v>
       </c>
       <c r="AA17">
-        <v>1062.2529999999999</v>
+        <v>10.004</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>451.83100000000002</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="D18">
-        <v>1840.097</v>
+        <v>194.97</v>
       </c>
       <c r="E18">
-        <v>643.89400000000001</v>
+        <v>18.314</v>
       </c>
       <c r="F18">
-        <v>1674.6849999999999</v>
+        <v>49.898000000000003</v>
       </c>
       <c r="G18">
-        <v>5113.62</v>
+        <v>272.54599999999999</v>
       </c>
       <c r="H18">
-        <v>14770.977000000001</v>
+        <v>542.08199999999999</v>
       </c>
       <c r="I18">
-        <v>281.48</v>
+        <v>40.612000000000002</v>
       </c>
       <c r="J18">
-        <v>3824.1990000000001</v>
+        <v>224.41800000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1378.703</v>
+        <v>74.376999999999995</v>
       </c>
       <c r="O18">
-        <v>6204.2830000000004</v>
+        <v>325.15499999999997</v>
       </c>
       <c r="P18">
-        <v>3861.3490000000002</v>
+        <v>224.41800000000001</v>
       </c>
       <c r="Q18">
-        <v>-1895.0730000000001</v>
+        <v>23.989000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>12700</v>
+        <v>438</v>
       </c>
       <c r="T18">
-        <v>8566.6939999999995</v>
+        <v>216.92699999999999</v>
       </c>
       <c r="U18">
-        <v>3148.6509999999998</v>
+        <v>101.27</v>
       </c>
       <c r="V18">
-        <v>755.28</v>
+        <v>5.7279999999999998</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-496.17399999999998</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-2025.1110000000001</v>
+        <v>21.367000000000001</v>
       </c>
       <c r="AA18">
-        <v>451.83100000000002</v>
+        <v>5.0010000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>333.327</v>
+        <v>4.992</v>
       </c>
       <c r="D19">
-        <v>1840.694</v>
+        <v>233.392</v>
       </c>
       <c r="E19">
-        <v>706.77599999999995</v>
+        <v>25.914999999999999</v>
       </c>
       <c r="F19">
-        <v>1655.836</v>
+        <v>57.707000000000001</v>
       </c>
       <c r="G19">
-        <v>5967.4809999999998</v>
+        <v>298.22699999999998</v>
       </c>
       <c r="H19">
-        <v>16842.491999999998</v>
+        <v>559.798</v>
       </c>
       <c r="I19">
-        <v>567.322</v>
+        <v>58.9</v>
       </c>
       <c r="J19">
-        <v>5304.1080000000002</v>
+        <v>223.57599999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-147.62899999999999</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1703.2339999999999</v>
+        <v>90.516999999999996</v>
       </c>
       <c r="O19">
-        <v>8212.3670000000002</v>
+        <v>338.29</v>
       </c>
       <c r="P19">
-        <v>5304.1080000000002</v>
+        <v>223.57599999999999</v>
       </c>
       <c r="Q19">
-        <v>107.163</v>
+        <v>-1.1990000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>13200</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>8630.125</v>
+        <v>221.50800000000001</v>
       </c>
       <c r="U19">
-        <v>3255.8139999999999</v>
+        <v>100.071</v>
       </c>
       <c r="V19">
-        <v>208.983</v>
+        <v>22.693000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1214.248</v>
+        <v>1.143</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-1088.518</v>
+        <v>-19.187999999999999</v>
       </c>
       <c r="AA19">
-        <v>333.327</v>
+        <v>4.992</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>517.03200000000004</v>
+        <v>12.375999999999999</v>
       </c>
       <c r="D20">
-        <v>2280.3969999999999</v>
+        <v>266.55700000000002</v>
       </c>
       <c r="E20">
-        <v>889.86800000000005</v>
+        <v>31.811</v>
       </c>
       <c r="F20">
-        <v>2092.9059999999999</v>
+        <v>65.233999999999995</v>
       </c>
       <c r="G20">
-        <v>4693.4709999999995</v>
+        <v>317.79500000000002</v>
       </c>
       <c r="H20">
-        <v>17027.346000000001</v>
+        <v>567.255</v>
       </c>
       <c r="I20">
-        <v>367.221</v>
+        <v>57.174999999999997</v>
       </c>
       <c r="J20">
-        <v>5399.9660000000003</v>
+        <v>224.24700000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1931.134</v>
+        <v>93.183999999999997</v>
       </c>
       <c r="O20">
-        <v>8469.3809999999994</v>
+        <v>340.13200000000001</v>
       </c>
       <c r="P20">
-        <v>5399.9660000000003</v>
+        <v>224.24700000000001</v>
       </c>
       <c r="Q20">
-        <v>-1366.865</v>
+        <v>18.199000000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>16200</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>8557.9650000000001</v>
+        <v>227.12299999999999</v>
       </c>
       <c r="U20">
-        <v>1888.9490000000001</v>
+        <v>118.27</v>
       </c>
       <c r="V20">
-        <v>702.37599999999998</v>
+        <v>13.968999999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-660.71299999999997</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1366.0630000000001</v>
+        <v>4.593</v>
       </c>
       <c r="AA20">
-        <v>517.03200000000004</v>
+        <v>12.375999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1196.732</v>
+        <v>171.571</v>
       </c>
       <c r="D21">
-        <v>3102.9009999999998</v>
+        <v>258.79700000000003</v>
       </c>
       <c r="E21">
-        <v>890.53200000000004</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="F21">
-        <v>2933.5819999999999</v>
+        <v>80.001999999999995</v>
       </c>
       <c r="G21">
-        <v>4298.9570000000003</v>
+        <v>230.84100000000001</v>
       </c>
       <c r="H21">
-        <v>16614.77</v>
+        <v>775.83100000000002</v>
       </c>
       <c r="I21">
-        <v>388.52800000000002</v>
+        <v>48.921999999999997</v>
       </c>
       <c r="J21">
-        <v>5421.3280000000004</v>
+        <v>223.56200000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1582.807</v>
+        <v>88.090999999999994</v>
       </c>
       <c r="O21">
-        <v>8087.9970000000003</v>
+        <v>359.32900000000001</v>
       </c>
       <c r="P21">
-        <v>5421.3280000000004</v>
+        <v>223.56200000000001</v>
       </c>
       <c r="Q21">
-        <v>-47.290999999999997</v>
+        <v>-18.181000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>8526.7729999999992</v>
+        <v>416.50200000000001</v>
       </c>
       <c r="U21">
-        <v>1841.6579999999999</v>
+        <v>100.089</v>
       </c>
       <c r="V21">
-        <v>1309.8</v>
+        <v>12.443</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-1262.73</v>
+        <v>19.242000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>37.664999999999999</v>
+        <v>84.843000000000004</v>
       </c>
       <c r="AA21">
-        <v>1196.732</v>
+        <v>171.57</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>504.26900000000001</v>
+        <v>3.79</v>
       </c>
       <c r="D22">
-        <v>1999.9949999999999</v>
+        <v>203.91300000000001</v>
       </c>
       <c r="E22">
-        <v>645.16899999999998</v>
+        <v>30.042999999999999</v>
       </c>
       <c r="F22">
-        <v>1879.383</v>
+        <v>64.918999999999997</v>
       </c>
       <c r="G22">
-        <v>3553.2370000000001</v>
+        <v>223.68199999999999</v>
       </c>
       <c r="H22">
-        <v>17420.575000000001</v>
+        <v>754.02800000000002</v>
       </c>
       <c r="I22">
-        <v>322.84199999999998</v>
+        <v>37.850999999999999</v>
       </c>
       <c r="J22">
-        <v>6158.4430000000002</v>
+        <v>223.54900000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1439.31</v>
+        <v>71.015000000000001</v>
       </c>
       <c r="O22">
-        <v>8625.1059999999998</v>
+        <v>347.82799999999997</v>
       </c>
       <c r="P22">
-        <v>6158.4430000000002</v>
+        <v>223.54900000000001</v>
       </c>
       <c r="Q22">
-        <v>-364.43</v>
+        <v>-19.748000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>15500</v>
+        <v>532</v>
       </c>
       <c r="T22">
-        <v>8795.4689999999991</v>
+        <v>406.2</v>
       </c>
       <c r="U22">
-        <v>1477.2650000000001</v>
+        <v>80.340999999999994</v>
       </c>
       <c r="V22">
-        <v>881.072</v>
+        <v>13.537000000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-20.800999999999998</v>
+        <v>-8.7309999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-1168.5360000000001</v>
+        <v>-19.768999999999998</v>
       </c>
       <c r="AA22">
-        <v>504.26900000000001</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>374.42399999999998</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="D23">
-        <v>2148.1190000000001</v>
+        <v>241.91399999999999</v>
       </c>
       <c r="E23">
-        <v>857.14</v>
+        <v>33.820999999999998</v>
       </c>
       <c r="F23">
-        <v>2019.45</v>
+        <v>72.230999999999995</v>
       </c>
       <c r="G23">
-        <v>4864.7629999999999</v>
+        <v>243.83199999999999</v>
       </c>
       <c r="H23">
-        <v>18334.545999999998</v>
+        <v>773.43200000000002</v>
       </c>
       <c r="I23">
-        <v>334.78300000000002</v>
+        <v>49.387</v>
       </c>
       <c r="J23">
-        <v>6323.7020000000002</v>
+        <v>223.21600000000001</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1987.5740000000001</v>
+        <v>88.248000000000005</v>
       </c>
       <c r="O23">
-        <v>9282.1790000000001</v>
+        <v>363.81</v>
       </c>
       <c r="P23">
-        <v>6423.7020000000002</v>
+        <v>223.21600000000001</v>
       </c>
       <c r="Q23">
-        <v>379.92899999999997</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>9052.3670000000002</v>
+        <v>409.62200000000001</v>
       </c>
       <c r="U23">
-        <v>1857.165</v>
+        <v>81.906999999999996</v>
       </c>
       <c r="V23">
-        <v>344.75799999999998</v>
+        <v>20.347000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-134.404</v>
+        <v>-4.4740000000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>201.25800000000001</v>
+        <v>-12.757</v>
       </c>
       <c r="AA23">
-        <v>374.42399999999998</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>580.63800000000003</v>
+        <v>12.516999999999999</v>
       </c>
       <c r="D24">
-        <v>2555.902</v>
+        <v>307.65100000000001</v>
       </c>
       <c r="E24">
-        <v>982.99300000000005</v>
+        <v>53.024999999999999</v>
       </c>
       <c r="F24">
-        <v>2429.8180000000002</v>
+        <v>105.804</v>
       </c>
       <c r="G24">
-        <v>5914.4669999999996</v>
+        <v>286.85300000000001</v>
       </c>
       <c r="H24">
-        <v>19687.169999999998</v>
+        <v>828.17700000000002</v>
       </c>
       <c r="I24">
-        <v>431.87</v>
+        <v>56.402000000000001</v>
       </c>
       <c r="J24">
-        <v>7257.7049999999999</v>
+        <v>223.261</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2209.6509999999998</v>
+        <v>103.73</v>
       </c>
       <c r="O24">
-        <v>10412.465</v>
+        <v>380.58199999999999</v>
       </c>
       <c r="P24">
-        <v>7257.7049999999999</v>
+        <v>223.261</v>
       </c>
       <c r="Q24">
-        <v>836.54100000000005</v>
+        <v>36.863999999999997</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>17600</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>9274.7049999999999</v>
+        <v>447.59500000000003</v>
       </c>
       <c r="U24">
-        <v>2693.7179999999998</v>
+        <v>118.771</v>
       </c>
       <c r="V24">
-        <v>1022.468</v>
+        <v>25.102</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>618.30899999999997</v>
+        <v>5.4459999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-726.05200000000002</v>
+        <v>12.837999999999999</v>
       </c>
       <c r="AA24">
-        <v>580.63800000000003</v>
+        <v>12.516999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>506.017</v>
+        <v>48.816000000000003</v>
       </c>
       <c r="D25">
-        <v>3690.5520000000001</v>
+        <v>313.46699999999998</v>
       </c>
       <c r="E25">
-        <v>1105.086</v>
+        <v>58.576999999999998</v>
       </c>
       <c r="F25">
-        <v>3589.0630000000001</v>
+        <v>123.547</v>
       </c>
       <c r="G25">
-        <v>5833.5820000000003</v>
+        <v>437.63</v>
       </c>
       <c r="H25">
-        <v>20033.784</v>
+        <v>1034.5340000000001</v>
       </c>
       <c r="I25">
-        <v>494.60700000000003</v>
+        <v>53.805999999999997</v>
       </c>
       <c r="J25">
-        <v>6384.2089999999998</v>
+        <v>523.71799999999996</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2905.9760000000001</v>
+        <v>104.34</v>
       </c>
       <c r="O25">
-        <v>10231.214</v>
+        <v>683.30399999999997</v>
       </c>
       <c r="P25">
-        <v>7345.1930000000002</v>
+        <v>523.71799999999996</v>
       </c>
       <c r="Q25">
-        <v>-271.41500000000002</v>
+        <v>189.899</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>9802.57</v>
+        <v>351.23</v>
       </c>
       <c r="U25">
-        <v>2422.2689999999998</v>
+        <v>308.67</v>
       </c>
       <c r="V25">
-        <v>1519.943</v>
+        <v>34.835000000000001</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-230.28</v>
+        <v>132.643</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-1460.373</v>
+        <v>40.085000000000001</v>
       </c>
       <c r="AA25">
-        <v>506.017</v>
+        <v>48.817</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>673.90800000000002</v>
+        <v>13.231999999999999</v>
       </c>
       <c r="D26">
-        <v>2348.433</v>
+        <v>260.07100000000003</v>
       </c>
       <c r="E26">
-        <v>860.11500000000001</v>
+        <v>48.536000000000001</v>
       </c>
       <c r="F26">
-        <v>2271.261</v>
+        <v>99.516999999999996</v>
       </c>
       <c r="G26">
-        <v>5401.5190000000002</v>
+        <v>503.089</v>
       </c>
       <c r="H26">
-        <v>19838.973000000002</v>
+        <v>1105.6479999999999</v>
       </c>
       <c r="I26">
-        <v>419.108</v>
+        <v>49.031999999999996</v>
       </c>
       <c r="J26">
-        <v>6201.56</v>
+        <v>568.86500000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2858.67</v>
+        <v>100.672</v>
       </c>
       <c r="O26">
-        <v>10018.831</v>
+        <v>721.13599999999997</v>
       </c>
       <c r="P26">
-        <v>7169.2939999999999</v>
+        <v>568.86500000000001</v>
       </c>
       <c r="Q26">
-        <v>-341.11900000000003</v>
+        <v>114.907</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>18500</v>
+        <v>696</v>
       </c>
       <c r="T26">
-        <v>9820.1419999999998</v>
+        <v>384.512</v>
       </c>
       <c r="U26">
-        <v>2081.0749999999998</v>
+        <v>423.577</v>
       </c>
       <c r="V26">
-        <v>1096.5619999999999</v>
+        <v>31.797000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-254.922</v>
+        <v>43.508000000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-1071.932</v>
+        <v>24.725999999999999</v>
       </c>
       <c r="AA26">
-        <v>673.90800000000002</v>
+        <v>13.231999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>455.62299999999999</v>
+        <v>-14.715999999999999</v>
       </c>
       <c r="D27">
-        <v>2419.404</v>
+        <v>317.267</v>
       </c>
       <c r="E27">
-        <v>934.25400000000002</v>
+        <v>52.134</v>
       </c>
       <c r="F27">
-        <v>2339.0030000000002</v>
+        <v>119.717</v>
       </c>
       <c r="G27">
-        <v>6987.8819999999996</v>
+        <v>555.75300000000004</v>
       </c>
       <c r="H27">
-        <v>21994.252</v>
+        <v>1165.739</v>
       </c>
       <c r="I27">
-        <v>407.57499999999999</v>
+        <v>57.905999999999999</v>
       </c>
       <c r="J27">
-        <v>7310.1229999999996</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,84 +2964,84 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3248.1990000000001</v>
+        <v>732.18799999999999</v>
       </c>
       <c r="O27">
-        <v>11183.233</v>
+        <v>782.81399999999996</v>
       </c>
       <c r="P27">
-        <v>8284.6610000000001</v>
+        <v>568.98</v>
       </c>
       <c r="Q27">
-        <v>352.94099999999997</v>
+        <v>31.411000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>20500</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>10811.019</v>
+        <v>382.92500000000001</v>
       </c>
       <c r="U27">
-        <v>2434.02</v>
+        <v>454.988</v>
       </c>
       <c r="V27">
-        <v>380.61799999999999</v>
+        <v>18.753</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>843.4</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-822.24900000000002</v>
+        <v>7.9960000000000004</v>
       </c>
       <c r="AA27">
-        <v>455.62299999999999</v>
+        <v>-14.715999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>720.20899999999995</v>
+        <v>34.572000000000003</v>
       </c>
       <c r="D28">
-        <v>3024.556</v>
+        <v>358.19799999999998</v>
       </c>
       <c r="E28">
-        <v>1230.6020000000001</v>
+        <v>76.831000000000003</v>
       </c>
       <c r="F28">
-        <v>2957.1309999999999</v>
+        <v>157.21100000000001</v>
       </c>
       <c r="G28">
-        <v>8272.57</v>
+        <v>552.37199999999996</v>
       </c>
       <c r="H28">
-        <v>23458.323</v>
+        <v>1167.664</v>
       </c>
       <c r="I28">
-        <v>598.20000000000005</v>
+        <v>58.999000000000002</v>
       </c>
       <c r="J28">
-        <v>7581.2129999999997</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3756.9549999999999</v>
+        <v>688.952</v>
       </c>
       <c r="O28">
-        <v>11868.654</v>
+        <v>741.23599999999999</v>
       </c>
       <c r="P28">
-        <v>8485.2970000000005</v>
+        <v>569.16099999999994</v>
       </c>
       <c r="Q28">
-        <v>200.42500000000001</v>
+        <v>-28.466999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>11589.669</v>
+        <v>426.428</v>
       </c>
       <c r="U28">
-        <v>2634.2640000000001</v>
+        <v>426.52100000000002</v>
       </c>
       <c r="V28">
-        <v>1221.2159999999999</v>
+        <v>8.8949999999999996</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-423.012</v>
+        <v>2.1379999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-567.41800000000001</v>
+        <v>-22.41</v>
       </c>
       <c r="AA28">
-        <v>720.20899999999995</v>
+        <v>34.572000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1720.3910000000001</v>
+        <v>104.364</v>
       </c>
       <c r="D29">
-        <v>4434.0290000000005</v>
+        <v>417.68200000000002</v>
       </c>
       <c r="E29">
-        <v>1437.7619999999999</v>
+        <v>103.55800000000001</v>
       </c>
       <c r="F29">
-        <v>4379.848</v>
+        <v>202.33099999999999</v>
       </c>
       <c r="G29">
-        <v>9124.5949999999993</v>
+        <v>629.822</v>
       </c>
       <c r="H29">
-        <v>25789.111000000001</v>
+        <v>1370.7090000000001</v>
       </c>
       <c r="I29">
-        <v>805.74</v>
+        <v>59.359000000000002</v>
       </c>
       <c r="J29">
-        <v>8737.58</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3624.2750000000001</v>
+        <v>761.05799999999999</v>
       </c>
       <c r="O29">
-        <v>12912.117</v>
+        <v>820.71900000000005</v>
       </c>
       <c r="P29">
-        <v>9637.3819999999996</v>
+        <v>569.45299999999997</v>
       </c>
       <c r="Q29">
-        <v>212.49799999999999</v>
+        <v>-3.0129999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>12876.994000000001</v>
+        <v>549.99</v>
       </c>
       <c r="U29">
-        <v>2846.3</v>
+        <v>423.50799999999998</v>
       </c>
       <c r="V29">
-        <v>1886.5909999999999</v>
+        <v>61.686</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>401.072</v>
+        <v>5.6280000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1476.894</v>
+        <v>-68.638999999999996</v>
       </c>
       <c r="AA29">
-        <v>1720.3910000000001</v>
+        <v>104.36499999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-555.22299999999996</v>
+        <v>32.862000000000002</v>
       </c>
       <c r="D30">
-        <v>2803.011</v>
+        <v>334.85300000000001</v>
       </c>
       <c r="E30">
-        <v>1218</v>
+        <v>70.712000000000003</v>
       </c>
       <c r="F30">
-        <v>2763.018</v>
+        <v>160.15299999999999</v>
       </c>
       <c r="G30">
-        <v>9035</v>
+        <v>613</v>
       </c>
       <c r="H30">
-        <v>25451</v>
+        <v>1350.856</v>
       </c>
       <c r="I30">
-        <v>668</v>
+        <v>47.707999999999998</v>
       </c>
       <c r="J30">
-        <v>8813</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3498</v>
+        <v>694.84299999999996</v>
       </c>
       <c r="O30">
-        <v>14190</v>
+        <v>754.71299999999997</v>
       </c>
       <c r="P30">
-        <v>9524</v>
+        <v>569.79600000000005</v>
       </c>
       <c r="Q30">
-        <v>-284.86399999999998</v>
+        <v>-38.149000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>22900</v>
+        <v>1324</v>
       </c>
       <c r="T30">
-        <v>11261</v>
+        <v>596.14300000000003</v>
       </c>
       <c r="U30">
-        <v>2542</v>
+        <v>385.35899999999998</v>
       </c>
       <c r="V30">
-        <v>1173.575</v>
+        <v>66.680999999999997</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-900.46</v>
+        <v>5.3460000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-494.43900000000002</v>
+        <v>-32.997</v>
       </c>
       <c r="AA30">
-        <v>-555.22299999999996</v>
+        <v>32.862000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>607</v>
+        <v>13.776</v>
       </c>
       <c r="D31">
-        <v>2928</v>
+        <v>403.18</v>
       </c>
       <c r="E31">
-        <v>1530.3209999999999</v>
+        <v>97.260999999999996</v>
       </c>
       <c r="F31">
-        <v>2429</v>
+        <v>181.10300000000001</v>
       </c>
       <c r="G31">
-        <v>9504.8639999999996</v>
+        <v>683.59799999999996</v>
       </c>
       <c r="H31">
-        <v>25018.959999999999</v>
+        <v>1428.191</v>
       </c>
       <c r="I31">
-        <v>841.274</v>
+        <v>68.933999999999997</v>
       </c>
       <c r="J31">
-        <v>8043.3159999999998</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,84 +3296,84 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1487</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4447.3950000000004</v>
+        <v>718.90499999999997</v>
       </c>
       <c r="O31">
-        <v>14382.617</v>
+        <v>779.65</v>
       </c>
       <c r="P31">
-        <v>8984.973</v>
+        <v>570.077</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>122.876</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>23000</v>
+        <v>1324</v>
       </c>
       <c r="T31">
-        <v>10636.343000000001</v>
+        <v>648.54100000000005</v>
       </c>
       <c r="U31">
-        <v>2622.0859999999998</v>
+        <v>508.23500000000001</v>
       </c>
       <c r="V31">
-        <v>640</v>
+        <v>43.381999999999998</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-2205</v>
+        <v>-1.357</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1767</v>
+        <v>77.453000000000003</v>
       </c>
       <c r="AA31">
-        <v>607</v>
+        <v>13.776</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>978</v>
+        <v>49.838000000000001</v>
       </c>
       <c r="D32">
-        <v>3537</v>
+        <v>513.976</v>
       </c>
       <c r="E32">
-        <v>1715.0550000000001</v>
+        <v>132.523</v>
       </c>
       <c r="F32">
-        <v>3015</v>
+        <v>253.72499999999999</v>
       </c>
       <c r="G32">
-        <v>10033.374</v>
+        <v>723.18499999999995</v>
       </c>
       <c r="H32">
-        <v>25296.253000000001</v>
+        <v>1491.546</v>
       </c>
       <c r="I32">
-        <v>1053.509</v>
+        <v>78.355999999999995</v>
       </c>
       <c r="J32">
-        <v>7811.723</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5222.4840000000004</v>
+        <v>712.44100000000003</v>
       </c>
       <c r="O32">
-        <v>14823.620999999999</v>
+        <v>778.125</v>
       </c>
       <c r="P32">
-        <v>8762.9130000000005</v>
+        <v>520.07600000000002</v>
       </c>
       <c r="Q32">
-        <v>563</v>
+        <v>-37.167000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>24000</v>
+        <v>1631</v>
       </c>
       <c r="T32">
-        <v>10472.632</v>
+        <v>713.42100000000005</v>
       </c>
       <c r="U32">
-        <v>3186.665</v>
+        <v>471.06799999999998</v>
       </c>
       <c r="V32">
-        <v>1650</v>
+        <v>89.902000000000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-1183</v>
+        <v>-47.113</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>370</v>
+        <v>-45.104999999999997</v>
       </c>
       <c r="AA32">
-        <v>978</v>
+        <v>49.838000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1767</v>
+        <v>84.486000000000004</v>
       </c>
       <c r="D33">
-        <v>4849</v>
+        <v>561.60900000000004</v>
       </c>
       <c r="E33">
-        <v>1719.059</v>
+        <v>138.875</v>
       </c>
       <c r="F33">
-        <v>4312</v>
+        <v>316.07799999999997</v>
       </c>
       <c r="G33">
-        <v>9467.8469999999998</v>
+        <v>639.17200000000003</v>
       </c>
       <c r="H33">
-        <v>24370.475999999999</v>
+        <v>1456.1130000000001</v>
       </c>
       <c r="I33">
-        <v>1174.5989999999999</v>
+        <v>65.802000000000007</v>
       </c>
       <c r="J33">
-        <v>8705.4009999999998</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3930.2240000000002</v>
+        <v>656.46900000000005</v>
       </c>
       <c r="O33">
-        <v>14418.665999999999</v>
+        <v>727.69299999999998</v>
       </c>
       <c r="P33">
-        <v>8709.3009999999995</v>
+        <v>467.51900000000001</v>
       </c>
       <c r="Q33">
-        <v>-214</v>
+        <v>-57.682000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>24000</v>
+        <v>1745</v>
       </c>
       <c r="T33">
-        <v>9951.81</v>
+        <v>728.42</v>
       </c>
       <c r="U33">
-        <v>2973.096</v>
+        <v>413.38600000000002</v>
       </c>
       <c r="V33">
-        <v>1964</v>
+        <v>101.916</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-2204</v>
+        <v>-47.259</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>164</v>
+        <v>37.872999999999998</v>
       </c>
       <c r="AA33">
-        <v>1767</v>
+        <v>84.486000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>646</v>
+        <v>34.146000000000001</v>
       </c>
       <c r="D34">
-        <v>3213</v>
+        <v>406.04199999999997</v>
       </c>
       <c r="E34">
-        <v>1523</v>
+        <v>92.328000000000003</v>
       </c>
       <c r="F34">
-        <v>4771</v>
+        <v>205.065</v>
       </c>
       <c r="G34">
-        <v>8407</v>
+        <v>593.899</v>
       </c>
       <c r="H34">
-        <v>22687</v>
+        <v>1312.421</v>
       </c>
       <c r="I34">
-        <v>1134</v>
+        <v>46.29</v>
       </c>
       <c r="J34">
-        <v>8649</v>
+        <v>75.075000000000003</v>
       </c>
       <c r="K34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3555</v>
+        <v>471.577</v>
       </c>
       <c r="O34">
-        <v>13902</v>
+        <v>613.59500000000003</v>
       </c>
       <c r="P34">
-        <v>8674</v>
+        <v>392.98500000000001</v>
       </c>
       <c r="Q34">
-        <v>-349</v>
+        <v>-48.835999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>24500</v>
+        <v>1780</v>
       </c>
       <c r="T34">
-        <v>8785</v>
+        <v>698.82600000000002</v>
       </c>
       <c r="U34">
-        <v>2624</v>
+        <v>364.55</v>
       </c>
       <c r="V34">
-        <v>1084</v>
+        <v>80.352999999999994</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-1839</v>
+        <v>-73.119</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>629</v>
+        <v>-47.973999999999997</v>
       </c>
       <c r="AA34">
-        <v>646</v>
+        <v>34.146000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>765</v>
+        <v>25.023</v>
       </c>
       <c r="D35">
-        <v>2837</v>
+        <v>462.05799999999999</v>
       </c>
       <c r="E35">
-        <v>1491</v>
+        <v>104.747</v>
       </c>
       <c r="F35">
-        <v>2336</v>
+        <v>208.33</v>
       </c>
       <c r="G35">
-        <v>7077</v>
+        <v>646.38499999999999</v>
       </c>
       <c r="H35">
-        <v>22366</v>
+        <v>1328.028</v>
       </c>
       <c r="I35">
-        <v>934</v>
+        <v>77.831999999999994</v>
       </c>
       <c r="J35">
-        <v>7619</v>
+        <v>66.067999999999998</v>
       </c>
       <c r="K35">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-20.504999999999999</v>
       </c>
       <c r="N35">
-        <v>5576</v>
+        <v>494.31</v>
       </c>
       <c r="O35">
-        <v>15451</v>
+        <v>623.36099999999999</v>
       </c>
       <c r="P35">
-        <v>9478</v>
+        <v>372.48</v>
       </c>
       <c r="Q35">
-        <v>-291</v>
+        <v>-73.290000000000006</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>25600</v>
+        <v>1828</v>
       </c>
       <c r="T35">
-        <v>6915</v>
+        <v>704.66700000000003</v>
       </c>
       <c r="U35">
-        <v>2334</v>
+        <v>291.26</v>
       </c>
       <c r="V35">
-        <v>150</v>
+        <v>74.164000000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-2548</v>
+        <v>-31.132999999999999</v>
       </c>
       <c r="Y35">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>2220</v>
+        <v>-108.251</v>
       </c>
       <c r="AA35">
-        <v>765</v>
+        <v>25.023</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>979</v>
+        <v>67.010999999999996</v>
       </c>
       <c r="D36">
-        <v>3850</v>
+        <v>603.74099999999999</v>
       </c>
       <c r="E36">
-        <v>1973</v>
+        <v>150.04499999999999</v>
       </c>
       <c r="F36">
-        <v>3231</v>
+        <v>305.238</v>
       </c>
       <c r="G36">
-        <v>10020</v>
+        <v>796.995</v>
       </c>
       <c r="H36">
-        <v>21494</v>
+        <v>1492.337</v>
       </c>
       <c r="I36">
-        <v>1291</v>
+        <v>77.168000000000006</v>
       </c>
       <c r="J36">
-        <v>7686</v>
+        <v>58.601999999999997</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6349</v>
+        <v>518.73800000000006</v>
       </c>
       <c r="O36">
-        <v>16187</v>
+        <v>644.88499999999999</v>
       </c>
       <c r="P36">
-        <v>9310</v>
+        <v>356.48</v>
       </c>
       <c r="Q36">
-        <v>2922</v>
+        <v>42.189</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>26850</v>
+        <v>1925</v>
       </c>
       <c r="T36">
-        <v>5307</v>
+        <v>847.452</v>
       </c>
       <c r="U36">
-        <v>5256</v>
+        <v>333.44900000000001</v>
       </c>
       <c r="V36">
-        <v>1787</v>
+        <v>94.057000000000002</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-2939</v>
+        <v>-10.77</v>
       </c>
       <c r="Y36">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>4177</v>
+        <v>-40.502000000000002</v>
       </c>
       <c r="AA36">
-        <v>979</v>
+        <v>67.010999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1950</v>
+        <v>318.983</v>
       </c>
       <c r="D37">
-        <v>5040</v>
+        <v>730.66</v>
       </c>
       <c r="E37">
-        <v>1788</v>
+        <v>169.864</v>
       </c>
       <c r="F37">
-        <v>4474</v>
+        <v>434.00599999999997</v>
       </c>
       <c r="G37">
-        <v>10056</v>
+        <v>950.35799999999995</v>
       </c>
       <c r="H37">
-        <v>21446</v>
+        <v>1797.0360000000001</v>
       </c>
       <c r="I37">
-        <v>1275</v>
+        <v>62.994999999999997</v>
       </c>
       <c r="J37">
-        <v>7512</v>
+        <v>50.213000000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>5528</v>
+        <v>477.58800000000002</v>
       </c>
       <c r="O37">
-        <v>15495</v>
+        <v>595.31100000000004</v>
       </c>
       <c r="P37">
-        <v>9111</v>
+        <v>270.93799999999999</v>
       </c>
       <c r="Q37">
-        <v>1209</v>
+        <v>29.024000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>26500</v>
+        <v>1782</v>
       </c>
       <c r="T37">
-        <v>5951</v>
+        <v>1201.7249999999999</v>
       </c>
       <c r="U37">
-        <v>6466</v>
+        <v>362.47300000000001</v>
       </c>
       <c r="V37">
-        <v>1851</v>
+        <v>195.179</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-1389</v>
+        <v>-83.328999999999994</v>
       </c>
       <c r="Y37">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>847</v>
+        <v>-81.981999999999999</v>
       </c>
       <c r="AA37">
-        <v>1950</v>
+        <v>318.98200000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1171</v>
+        <v>78.454999999999998</v>
       </c>
       <c r="D38">
-        <v>3339</v>
+        <v>541.75300000000004</v>
       </c>
       <c r="E38">
-        <v>1680</v>
+        <v>118.65900000000001</v>
       </c>
       <c r="F38">
-        <v>2777</v>
+        <v>313.18900000000002</v>
       </c>
       <c r="G38">
-        <v>9833</v>
+        <v>1022.941</v>
       </c>
       <c r="H38">
-        <v>21402</v>
+        <v>1834.2239999999999</v>
       </c>
       <c r="I38">
-        <v>1239</v>
+        <v>60.567999999999998</v>
       </c>
       <c r="J38">
-        <v>7640</v>
+        <v>35.984999999999999</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>5366</v>
+        <v>408.76499999999999</v>
       </c>
       <c r="O38">
-        <v>15469</v>
+        <v>512.59500000000003</v>
       </c>
       <c r="P38">
-        <v>9251</v>
+        <v>195.863</v>
       </c>
       <c r="Q38">
-        <v>-153</v>
+        <v>-160.33199999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>26400</v>
+        <v>2010</v>
       </c>
       <c r="T38">
-        <v>5933</v>
+        <v>1321.6289999999999</v>
       </c>
       <c r="U38">
-        <v>6312</v>
+        <v>202.14099999999999</v>
       </c>
       <c r="V38">
-        <v>1077</v>
+        <v>146.26499999999999</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-1344</v>
+        <v>-43.728000000000002</v>
       </c>
       <c r="Y38">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>183</v>
+        <v>-250.32300000000001</v>
       </c>
       <c r="AA38">
-        <v>1171</v>
+        <v>78.454999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-699</v>
+        <v>53.875</v>
       </c>
       <c r="D39">
-        <v>2288</v>
+        <v>584.39400000000001</v>
       </c>
       <c r="E39">
-        <v>667</v>
+        <v>132.49700000000001</v>
       </c>
       <c r="F39">
-        <v>1804</v>
+        <v>319.11599999999999</v>
       </c>
       <c r="G39">
-        <v>9260</v>
+        <v>1476.6010000000001</v>
       </c>
       <c r="H39">
-        <v>17862</v>
+        <v>2201.5610000000001</v>
       </c>
       <c r="I39">
-        <v>926</v>
+        <v>75.256</v>
       </c>
       <c r="J39">
-        <v>7557</v>
+        <v>480.12400000000002</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,84 +3960,84 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-98.388000000000005</v>
       </c>
       <c r="N39">
-        <v>4136</v>
+        <v>343.59199999999998</v>
       </c>
       <c r="O39">
-        <v>14031</v>
+        <v>884.93299999999999</v>
       </c>
       <c r="P39">
-        <v>9214</v>
+        <v>558.45299999999997</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>146.63399999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>27200</v>
+        <v>2266</v>
       </c>
       <c r="T39">
-        <v>3831</v>
+        <v>1316.6279999999999</v>
       </c>
       <c r="U39">
-        <v>6363</v>
+        <v>348.77499999999998</v>
       </c>
       <c r="V39">
-        <v>-380</v>
+        <v>104.697</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-1281</v>
+        <v>358.995</v>
       </c>
       <c r="Y39">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1813</v>
+        <v>-313.81900000000002</v>
       </c>
       <c r="AA39">
-        <v>-699</v>
+        <v>53.875</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>122</v>
+        <v>114.95699999999999</v>
       </c>
       <c r="D40">
-        <v>630</v>
+        <v>767.43899999999996</v>
       </c>
       <c r="E40">
-        <v>566</v>
+        <v>208.05600000000001</v>
       </c>
       <c r="F40">
-        <v>178</v>
+        <v>445.255</v>
       </c>
       <c r="G40">
-        <v>11453</v>
+        <v>1557.6759999999999</v>
       </c>
       <c r="H40">
-        <v>20912</v>
+        <v>2445.739</v>
       </c>
       <c r="I40">
-        <v>581</v>
+        <v>119.13800000000001</v>
       </c>
       <c r="J40">
-        <v>10633</v>
+        <v>474.05099999999999</v>
       </c>
       <c r="K40">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3909</v>
+        <v>465.77600000000001</v>
       </c>
       <c r="O40">
-        <v>16913</v>
+        <v>1025.9000000000001</v>
       </c>
       <c r="P40">
-        <v>12312</v>
+        <v>516.03200000000004</v>
       </c>
       <c r="Q40">
-        <v>4040</v>
+        <v>7.26</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>25000</v>
+        <v>2900</v>
       </c>
       <c r="T40">
-        <v>3999</v>
+        <v>1419.8389999999999</v>
       </c>
       <c r="U40">
-        <v>10404</v>
+        <v>356.03500000000003</v>
       </c>
       <c r="V40">
-        <v>122</v>
+        <v>187.31899999999999</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>2874</v>
+        <v>-66.031999999999996</v>
       </c>
       <c r="Y40">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1112</v>
+        <v>-12.711</v>
       </c>
       <c r="AA40">
-        <v>122</v>
+        <v>114.95699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>801</v>
+        <v>222.98</v>
       </c>
       <c r="D41">
-        <v>2640</v>
+        <v>1001.7569999999999</v>
       </c>
       <c r="E41">
-        <v>859</v>
+        <v>248.946</v>
       </c>
       <c r="F41">
-        <v>2123</v>
+        <v>666.18799999999999</v>
       </c>
       <c r="G41">
-        <v>12583</v>
+        <v>1840.058</v>
       </c>
       <c r="H41">
-        <v>22145</v>
+        <v>2746.5450000000001</v>
       </c>
       <c r="I41">
-        <v>1114</v>
+        <v>112.753</v>
       </c>
       <c r="J41">
-        <v>10829</v>
+        <v>471.11200000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3968</v>
+        <v>506.32900000000001</v>
       </c>
       <c r="O41">
-        <v>17232</v>
+        <v>1065.3240000000001</v>
       </c>
       <c r="P41">
-        <v>12451</v>
+        <v>471.286</v>
       </c>
       <c r="Q41">
-        <v>794</v>
+        <v>177.08600000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>23000</v>
+        <v>3100</v>
       </c>
       <c r="T41">
-        <v>4913</v>
+        <v>1681.221</v>
       </c>
       <c r="U41">
-        <v>11197</v>
+        <v>533.12099999999998</v>
       </c>
       <c r="V41">
-        <v>920</v>
+        <v>305.36399999999998</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-61</v>
+        <v>-118.43899999999999</v>
       </c>
       <c r="Y41">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-37.555999999999997</v>
       </c>
       <c r="AA41">
-        <v>801</v>
+        <v>222.98</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>135.72900000000001</v>
+      </c>
+      <c r="D42">
+        <v>731.31399999999996</v>
+      </c>
+      <c r="E42">
+        <v>162.42599999999999</v>
+      </c>
+      <c r="F42">
+        <v>478.41199999999998</v>
+      </c>
+      <c r="G42">
+        <v>1957.4639999999999</v>
+      </c>
+      <c r="H42">
+        <v>2905.953</v>
+      </c>
+      <c r="I42">
+        <v>90.311000000000007</v>
+      </c>
+      <c r="J42">
+        <v>476.26799999999997</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>471.16800000000001</v>
+      </c>
+      <c r="O42">
+        <v>1046.866</v>
+      </c>
+      <c r="P42">
+        <v>476.44299999999998</v>
+      </c>
+      <c r="Q42">
+        <v>-174.154</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>3400</v>
+      </c>
+      <c r="T42">
+        <v>1859.087</v>
+      </c>
+      <c r="U42">
+        <v>358.96699999999998</v>
+      </c>
+      <c r="V42">
+        <v>179.917</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>38.433</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-377.27699999999999</v>
+      </c>
+      <c r="AA42">
+        <v>135.72900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>104.79</v>
+      </c>
+      <c r="D43">
+        <v>809.32</v>
+      </c>
+      <c r="E43">
+        <v>221.97800000000001</v>
+      </c>
+      <c r="F43">
+        <v>505.80799999999999</v>
+      </c>
+      <c r="G43">
+        <v>2105.67</v>
+      </c>
+      <c r="H43">
+        <v>3065.3510000000001</v>
+      </c>
+      <c r="I43">
+        <v>115.512</v>
+      </c>
+      <c r="J43">
+        <v>93.569000000000003</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1086.6959999999999</v>
+      </c>
+      <c r="O43">
+        <v>1283.412</v>
+      </c>
+      <c r="P43">
+        <v>575.21299999999997</v>
+      </c>
+      <c r="Q43">
+        <v>192.107</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>3700</v>
+      </c>
+      <c r="T43">
+        <v>1781.9390000000001</v>
+      </c>
+      <c r="U43">
+        <v>551.07399999999996</v>
+      </c>
+      <c r="V43">
+        <v>276.21899999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-147.19800000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>145.55500000000001</v>
+      </c>
+      <c r="AA43">
+        <v>104.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>256.36799999999999</v>
+      </c>
+      <c r="D44">
+        <v>1102.7159999999999</v>
+      </c>
+      <c r="E44">
+        <v>321.358</v>
+      </c>
+      <c r="F44">
+        <v>749.22699999999998</v>
+      </c>
+      <c r="G44">
+        <v>2376.4349999999999</v>
+      </c>
+      <c r="H44">
+        <v>3360.0749999999998</v>
+      </c>
+      <c r="I44">
+        <v>127.794</v>
+      </c>
+      <c r="J44">
+        <v>88.221999999999994</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1126.193</v>
+      </c>
+      <c r="O44">
+        <v>1302.952</v>
+      </c>
+      <c r="P44">
+        <v>575</v>
+      </c>
+      <c r="Q44">
+        <v>60.174999999999997</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>4300</v>
+      </c>
+      <c r="T44">
+        <v>2057.123</v>
+      </c>
+      <c r="U44">
+        <v>611.24900000000002</v>
+      </c>
+      <c r="V44">
+        <v>223.28299999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-8.6489999999999991</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-126.735</v>
+      </c>
+      <c r="AA44">
+        <v>256.36799999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>469.49700000000001</v>
+      </c>
+      <c r="D45">
+        <v>1452.8040000000001</v>
+      </c>
+      <c r="E45">
+        <v>345.339</v>
+      </c>
+      <c r="F45">
+        <v>1100.1479999999999</v>
+      </c>
+      <c r="G45">
+        <v>2881.9769999999999</v>
+      </c>
+      <c r="H45">
+        <v>3815.5729999999999</v>
+      </c>
+      <c r="I45">
+        <v>169.54499999999999</v>
+      </c>
+      <c r="J45">
+        <v>82.831000000000003</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1181.261</v>
+      </c>
+      <c r="O45">
+        <v>1348.6590000000001</v>
+      </c>
+      <c r="P45">
+        <v>575</v>
+      </c>
+      <c r="Q45">
+        <v>-190.083</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>4600</v>
+      </c>
+      <c r="T45">
+        <v>2466.9140000000002</v>
+      </c>
+      <c r="U45">
+        <v>421.166</v>
+      </c>
+      <c r="V45">
+        <v>560.46900000000005</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-0.73399999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-719.48299999999995</v>
+      </c>
+      <c r="AA45">
+        <v>469.49900000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>225.71600000000001</v>
+      </c>
+      <c r="D46">
+        <v>990.77099999999996</v>
+      </c>
+      <c r="E46">
+        <v>264.45299999999997</v>
+      </c>
+      <c r="F46">
+        <v>724.69799999999998</v>
+      </c>
+      <c r="G46">
+        <v>3066.8440000000001</v>
+      </c>
+      <c r="H46">
+        <v>3970.6709999999998</v>
+      </c>
+      <c r="I46">
+        <v>146.86699999999999</v>
+      </c>
+      <c r="J46">
+        <v>77.36</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1105.798</v>
+      </c>
+      <c r="O46">
+        <v>1269.3309999999999</v>
+      </c>
+      <c r="P46">
+        <v>575</v>
+      </c>
+      <c r="Q46">
+        <v>211.67</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5000</v>
+      </c>
+      <c r="T46">
+        <v>2701.34</v>
+      </c>
+      <c r="U46">
+        <v>632.83600000000001</v>
+      </c>
+      <c r="V46">
+        <v>281.84100000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>5.5540000000000003</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-75.171000000000006</v>
+      </c>
+      <c r="AA46">
+        <v>225.71600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>181.97</v>
+      </c>
+      <c r="D47">
+        <v>1037.2470000000001</v>
+      </c>
+      <c r="E47">
+        <v>324.56200000000001</v>
+      </c>
+      <c r="F47">
+        <v>743.28800000000001</v>
+      </c>
+      <c r="G47">
+        <v>4203.0619999999999</v>
+      </c>
+      <c r="H47">
+        <v>5092.8270000000002</v>
+      </c>
+      <c r="I47">
+        <v>173.98400000000001</v>
+      </c>
+      <c r="J47">
+        <v>938.37699999999995</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1290.229</v>
+      </c>
+      <c r="O47">
+        <v>2317.8519999999999</v>
+      </c>
+      <c r="P47">
+        <v>1441.569</v>
+      </c>
+      <c r="Q47">
+        <v>559.23900000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>5700</v>
+      </c>
+      <c r="T47">
+        <v>2774.9749999999999</v>
+      </c>
+      <c r="U47">
+        <v>1192.075</v>
+      </c>
+      <c r="V47">
+        <v>182.38</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>730.53300000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-376.101</v>
+      </c>
+      <c r="AA47">
+        <v>181.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>352.34699999999998</v>
+      </c>
+      <c r="D48">
+        <v>1326.759</v>
+      </c>
+      <c r="E48">
+        <v>429.52</v>
+      </c>
+      <c r="F48">
+        <v>1004.1420000000001</v>
+      </c>
+      <c r="G48">
+        <v>4578.299</v>
+      </c>
+      <c r="H48">
+        <v>5428.8059999999996</v>
+      </c>
+      <c r="I48">
+        <v>201.203</v>
+      </c>
+      <c r="J48">
+        <v>937.84100000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1366.635</v>
+      </c>
+      <c r="O48">
+        <v>2390.835</v>
+      </c>
+      <c r="P48">
+        <v>1446.6669999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-379.28899999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>6400</v>
+      </c>
+      <c r="T48">
+        <v>3037.971</v>
+      </c>
+      <c r="U48">
+        <v>812.78599999999994</v>
+      </c>
+      <c r="V48">
+        <v>431.60599999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-52.994999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-743.08</v>
+      </c>
+      <c r="AA48">
+        <v>352.34699999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>596.58600000000001</v>
+      </c>
+      <c r="D49">
+        <v>1706.31</v>
+      </c>
+      <c r="E49">
+        <v>493.77699999999999</v>
+      </c>
+      <c r="F49">
+        <v>1401.3009999999999</v>
+      </c>
+      <c r="G49">
+        <v>5365.7290000000003</v>
+      </c>
+      <c r="H49">
+        <v>6217.8090000000002</v>
+      </c>
+      <c r="I49">
+        <v>240.17599999999999</v>
+      </c>
+      <c r="J49">
+        <v>937.26599999999996</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1475.34</v>
+      </c>
+      <c r="O49">
+        <v>2506.7240000000002</v>
+      </c>
+      <c r="P49">
+        <v>1451.808</v>
+      </c>
+      <c r="Q49">
+        <v>85.683999999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>6600</v>
+      </c>
+      <c r="T49">
+        <v>3711.085</v>
+      </c>
+      <c r="U49">
+        <v>898.47</v>
+      </c>
+      <c r="V49">
+        <v>674.94500000000005</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-601.68299999999999</v>
+      </c>
+      <c r="AA49">
+        <v>596.58600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>288.66300000000001</v>
+      </c>
+      <c r="D50">
+        <v>1190.6400000000001</v>
+      </c>
+      <c r="E50">
+        <v>367.512</v>
+      </c>
+      <c r="F50">
+        <v>955.95</v>
+      </c>
+      <c r="G50">
+        <v>5682.375</v>
+      </c>
+      <c r="H50">
+        <v>6569.7420000000002</v>
+      </c>
+      <c r="I50">
+        <v>184.648</v>
+      </c>
+      <c r="J50">
+        <v>936.65099999999995</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1461.7260000000001</v>
+      </c>
+      <c r="O50">
+        <v>2512.48</v>
+      </c>
+      <c r="P50">
+        <v>1456.9949999999999</v>
+      </c>
+      <c r="Q50">
+        <v>637.87900000000002</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>7000</v>
+      </c>
+      <c r="T50">
+        <v>4057.2620000000002</v>
+      </c>
+      <c r="U50">
+        <v>1536.3489999999999</v>
+      </c>
+      <c r="V50">
+        <v>496.81900000000002</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-9.3179999999999996</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>167.78100000000001</v>
+      </c>
+      <c r="AA50">
+        <v>288.66300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>244.27099999999999</v>
+      </c>
+      <c r="D51">
+        <v>1302.0119999999999</v>
+      </c>
+      <c r="E51">
+        <v>471.80700000000002</v>
+      </c>
+      <c r="F51">
+        <v>1028.365</v>
+      </c>
+      <c r="G51">
+        <v>6030.4520000000002</v>
+      </c>
+      <c r="H51">
+        <v>6855.1270000000004</v>
+      </c>
+      <c r="I51">
+        <v>250.54599999999999</v>
+      </c>
+      <c r="J51">
+        <v>935.99699999999996</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1605.3389999999999</v>
+      </c>
+      <c r="O51">
+        <v>2673.3989999999999</v>
+      </c>
+      <c r="P51">
+        <v>1462.2280000000001</v>
+      </c>
+      <c r="Q51">
+        <v>74.861000000000004</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>7900</v>
+      </c>
+      <c r="T51">
+        <v>4181.7280000000001</v>
+      </c>
+      <c r="U51">
+        <v>1611.21</v>
+      </c>
+      <c r="V51">
+        <v>183.11699999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-70.971999999999994</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>17.271000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>244.27099999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>437.32600000000002</v>
+      </c>
+      <c r="D52">
+        <v>1680.2380000000001</v>
+      </c>
+      <c r="E52">
+        <v>649.25</v>
+      </c>
+      <c r="F52">
+        <v>1383.855</v>
+      </c>
+      <c r="G52">
+        <v>6926.15</v>
+      </c>
+      <c r="H52">
+        <v>9867.3709999999992</v>
+      </c>
+      <c r="I52">
+        <v>316.25099999999998</v>
+      </c>
+      <c r="J52">
+        <v>1762.89</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1771.4369999999999</v>
+      </c>
+      <c r="O52">
+        <v>4009.7109999999998</v>
+      </c>
+      <c r="P52">
+        <v>2295.096</v>
+      </c>
+      <c r="Q52">
+        <v>151.00399999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>9500</v>
+      </c>
+      <c r="T52">
+        <v>5857.66</v>
+      </c>
+      <c r="U52">
+        <v>1762.2139999999999</v>
+      </c>
+      <c r="V52">
+        <v>593.38199999999995</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>524.51400000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-591.17999999999995</v>
+      </c>
+      <c r="AA52">
+        <v>437.32600000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>832.98900000000003</v>
+      </c>
+      <c r="D53">
+        <v>2269.9029999999998</v>
+      </c>
+      <c r="E53">
+        <v>706.23400000000004</v>
+      </c>
+      <c r="F53">
+        <v>1989.0650000000001</v>
+      </c>
+      <c r="G53">
+        <v>7489.0469999999996</v>
+      </c>
+      <c r="H53">
+        <v>10445.655000000001</v>
+      </c>
+      <c r="I53">
+        <v>312.89600000000002</v>
+      </c>
+      <c r="J53">
+        <v>1767.7570000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1825.8440000000001</v>
+      </c>
+      <c r="O53">
+        <v>4049.0329999999999</v>
+      </c>
+      <c r="P53">
+        <v>2306.0230000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-666.12</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>9400</v>
+      </c>
+      <c r="T53">
+        <v>6396.6220000000003</v>
+      </c>
+      <c r="U53">
+        <v>1096.0940000000001</v>
+      </c>
+      <c r="V53">
+        <v>970.46400000000006</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-451.56099999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-1184.684</v>
+      </c>
+      <c r="AA53">
+        <v>832.98900000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>378.077</v>
+      </c>
+      <c r="D54">
+        <v>1541.153</v>
+      </c>
+      <c r="E54">
+        <v>535.96199999999999</v>
+      </c>
+      <c r="F54">
+        <v>1327.001</v>
+      </c>
+      <c r="G54">
+        <v>7480.9409999999998</v>
+      </c>
+      <c r="H54">
+        <v>10444.459999999999</v>
+      </c>
+      <c r="I54">
+        <v>247.345</v>
+      </c>
+      <c r="J54">
+        <v>1750.58</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1381.7449999999999</v>
+      </c>
+      <c r="O54">
+        <v>3534.7310000000002</v>
+      </c>
+      <c r="P54">
+        <v>1902.511</v>
+      </c>
+      <c r="Q54">
+        <v>193.9</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>9500</v>
+      </c>
+      <c r="T54">
+        <v>6909.7290000000003</v>
+      </c>
+      <c r="U54">
+        <v>1289.9939999999999</v>
+      </c>
+      <c r="V54">
+        <v>554.47299999999996</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-405.49200000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>94.075999999999993</v>
+      </c>
+      <c r="AA54">
+        <v>378.077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>331.21800000000002</v>
+      </c>
+      <c r="D55">
+        <v>1641.8019999999999</v>
+      </c>
+      <c r="E55">
+        <v>627.16</v>
+      </c>
+      <c r="F55">
+        <v>1406.471</v>
+      </c>
+      <c r="G55">
+        <v>7855.94</v>
+      </c>
+      <c r="H55">
+        <v>10813.683999999999</v>
+      </c>
+      <c r="I55">
+        <v>299.411</v>
+      </c>
+      <c r="J55">
+        <v>1757.4780000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-58.448999999999998</v>
+      </c>
+      <c r="N55">
+        <v>1430.989</v>
+      </c>
+      <c r="O55">
+        <v>3604.2750000000001</v>
+      </c>
+      <c r="P55">
+        <v>1855.1849999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-1.8440000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>10200</v>
+      </c>
+      <c r="T55">
+        <v>7209.4089999999997</v>
+      </c>
+      <c r="U55">
+        <v>1288.1500000000001</v>
+      </c>
+      <c r="V55">
+        <v>177.00399999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-141.917</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>39.966000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>331.21800000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>576.45100000000002</v>
+      </c>
+      <c r="D56">
+        <v>2123.5749999999998</v>
+      </c>
+      <c r="E56">
+        <v>841.13300000000004</v>
+      </c>
+      <c r="F56">
+        <v>1882.9960000000001</v>
+      </c>
+      <c r="G56">
+        <v>8508.759</v>
+      </c>
+      <c r="H56">
+        <v>11600.323</v>
+      </c>
+      <c r="I56">
+        <v>340.90300000000002</v>
+      </c>
+      <c r="J56">
+        <v>1765.6990000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1507.2449999999999</v>
+      </c>
+      <c r="O56">
+        <v>3776.2910000000002</v>
+      </c>
+      <c r="P56">
+        <v>1807.0150000000001</v>
+      </c>
+      <c r="Q56">
+        <v>2215.7489999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>11700</v>
+      </c>
+      <c r="T56">
+        <v>7824.0320000000002</v>
+      </c>
+      <c r="U56">
+        <v>3503.8989999999999</v>
+      </c>
+      <c r="V56">
+        <v>689.98099999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-51.331000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1733.412</v>
+      </c>
+      <c r="AA56">
+        <v>576.45100000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1062.2529999999999</v>
+      </c>
+      <c r="D57">
+        <v>2836.4969999999998</v>
+      </c>
+      <c r="E57">
+        <v>843.56</v>
+      </c>
+      <c r="F57">
+        <v>2619.9780000000001</v>
+      </c>
+      <c r="G57">
+        <v>7303.8649999999998</v>
+      </c>
+      <c r="H57">
+        <v>15184.38</v>
+      </c>
+      <c r="I57">
+        <v>525.44100000000003</v>
+      </c>
+      <c r="J57">
+        <v>3888.0189999999998</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1589.145</v>
+      </c>
+      <c r="O57">
+        <v>6451.2690000000002</v>
+      </c>
+      <c r="P57">
+        <v>3925.8</v>
+      </c>
+      <c r="Q57">
+        <v>1539.825</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>12600</v>
+      </c>
+      <c r="T57">
+        <v>8733.1110000000008</v>
+      </c>
+      <c r="U57">
+        <v>5043.7240000000002</v>
+      </c>
+      <c r="V57">
+        <v>1292.1320000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>2118.4160000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>602.01900000000001</v>
+      </c>
+      <c r="AA57">
+        <v>1062.2529999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>451.83100000000002</v>
+      </c>
+      <c r="D58">
+        <v>1840.097</v>
+      </c>
+      <c r="E58">
+        <v>643.89400000000001</v>
+      </c>
+      <c r="F58">
+        <v>1674.6849999999999</v>
+      </c>
+      <c r="G58">
+        <v>5113.62</v>
+      </c>
+      <c r="H58">
+        <v>14770.977000000001</v>
+      </c>
+      <c r="I58">
+        <v>281.48</v>
+      </c>
+      <c r="J58">
+        <v>3824.1990000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1378.703</v>
+      </c>
+      <c r="O58">
+        <v>6204.2830000000004</v>
+      </c>
+      <c r="P58">
+        <v>3861.3490000000002</v>
+      </c>
+      <c r="Q58">
+        <v>-1895.0730000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>12700</v>
+      </c>
+      <c r="T58">
+        <v>8566.6939999999995</v>
+      </c>
+      <c r="U58">
+        <v>3148.6509999999998</v>
+      </c>
+      <c r="V58">
+        <v>755.28</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-496.17399999999998</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-2025.1110000000001</v>
+      </c>
+      <c r="AA58">
+        <v>451.83100000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>333.327</v>
+      </c>
+      <c r="D59">
+        <v>1840.694</v>
+      </c>
+      <c r="E59">
+        <v>706.77599999999995</v>
+      </c>
+      <c r="F59">
+        <v>1655.836</v>
+      </c>
+      <c r="G59">
+        <v>5967.4809999999998</v>
+      </c>
+      <c r="H59">
+        <v>16842.491999999998</v>
+      </c>
+      <c r="I59">
+        <v>567.322</v>
+      </c>
+      <c r="J59">
+        <v>5304.1080000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-147.62899999999999</v>
+      </c>
+      <c r="N59">
+        <v>1703.2339999999999</v>
+      </c>
+      <c r="O59">
+        <v>8212.3670000000002</v>
+      </c>
+      <c r="P59">
+        <v>5304.1080000000002</v>
+      </c>
+      <c r="Q59">
+        <v>107.163</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>13200</v>
+      </c>
+      <c r="T59">
+        <v>8630.125</v>
+      </c>
+      <c r="U59">
+        <v>3255.8139999999999</v>
+      </c>
+      <c r="V59">
+        <v>208.983</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1214.248</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-1088.518</v>
+      </c>
+      <c r="AA59">
+        <v>333.327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>517.03200000000004</v>
+      </c>
+      <c r="D60">
+        <v>2280.3969999999999</v>
+      </c>
+      <c r="E60">
+        <v>889.86800000000005</v>
+      </c>
+      <c r="F60">
+        <v>2092.9059999999999</v>
+      </c>
+      <c r="G60">
+        <v>4693.4709999999995</v>
+      </c>
+      <c r="H60">
+        <v>17027.346000000001</v>
+      </c>
+      <c r="I60">
+        <v>367.221</v>
+      </c>
+      <c r="J60">
+        <v>5399.9660000000003</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1931.134</v>
+      </c>
+      <c r="O60">
+        <v>8469.3809999999994</v>
+      </c>
+      <c r="P60">
+        <v>5399.9660000000003</v>
+      </c>
+      <c r="Q60">
+        <v>-1366.865</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>16200</v>
+      </c>
+      <c r="T60">
+        <v>8557.9650000000001</v>
+      </c>
+      <c r="U60">
+        <v>1888.9490000000001</v>
+      </c>
+      <c r="V60">
+        <v>702.37599999999998</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-660.71299999999997</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1366.0630000000001</v>
+      </c>
+      <c r="AA60">
+        <v>517.03200000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1196.732</v>
+      </c>
+      <c r="D61">
+        <v>3102.9009999999998</v>
+      </c>
+      <c r="E61">
+        <v>890.53200000000004</v>
+      </c>
+      <c r="F61">
+        <v>2933.5819999999999</v>
+      </c>
+      <c r="G61">
+        <v>4298.9570000000003</v>
+      </c>
+      <c r="H61">
+        <v>16614.77</v>
+      </c>
+      <c r="I61">
+        <v>388.52800000000002</v>
+      </c>
+      <c r="J61">
+        <v>5421.3280000000004</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1582.807</v>
+      </c>
+      <c r="O61">
+        <v>8087.9970000000003</v>
+      </c>
+      <c r="P61">
+        <v>5421.3280000000004</v>
+      </c>
+      <c r="Q61">
+        <v>-47.290999999999997</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>15500</v>
+      </c>
+      <c r="T61">
+        <v>8526.7729999999992</v>
+      </c>
+      <c r="U61">
+        <v>1841.6579999999999</v>
+      </c>
+      <c r="V61">
+        <v>1309.8</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-1262.73</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>37.664999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>1196.732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>504.26900000000001</v>
+      </c>
+      <c r="D62">
+        <v>1999.9949999999999</v>
+      </c>
+      <c r="E62">
+        <v>645.16899999999998</v>
+      </c>
+      <c r="F62">
+        <v>1879.383</v>
+      </c>
+      <c r="G62">
+        <v>3553.2370000000001</v>
+      </c>
+      <c r="H62">
+        <v>17420.575000000001</v>
+      </c>
+      <c r="I62">
+        <v>322.84199999999998</v>
+      </c>
+      <c r="J62">
+        <v>6158.4430000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1439.31</v>
+      </c>
+      <c r="O62">
+        <v>8625.1059999999998</v>
+      </c>
+      <c r="P62">
+        <v>6158.4430000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-364.43</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>15500</v>
+      </c>
+      <c r="T62">
+        <v>8795.4689999999991</v>
+      </c>
+      <c r="U62">
+        <v>1477.2650000000001</v>
+      </c>
+      <c r="V62">
+        <v>881.072</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-20.800999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-1168.5360000000001</v>
+      </c>
+      <c r="AA62">
+        <v>504.26900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>374.42399999999998</v>
+      </c>
+      <c r="D63">
+        <v>2148.1190000000001</v>
+      </c>
+      <c r="E63">
+        <v>857.14</v>
+      </c>
+      <c r="F63">
+        <v>2019.45</v>
+      </c>
+      <c r="G63">
+        <v>4864.7629999999999</v>
+      </c>
+      <c r="H63">
+        <v>18334.545999999998</v>
+      </c>
+      <c r="I63">
+        <v>334.78300000000002</v>
+      </c>
+      <c r="J63">
+        <v>6323.7020000000002</v>
+      </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1987.5740000000001</v>
+      </c>
+      <c r="O63">
+        <v>9282.1790000000001</v>
+      </c>
+      <c r="P63">
+        <v>6423.7020000000002</v>
+      </c>
+      <c r="Q63">
+        <v>379.92899999999997</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>16000</v>
+      </c>
+      <c r="T63">
+        <v>9052.3670000000002</v>
+      </c>
+      <c r="U63">
+        <v>1857.165</v>
+      </c>
+      <c r="V63">
+        <v>344.75799999999998</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-134.404</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>201.25800000000001</v>
+      </c>
+      <c r="AA63">
+        <v>374.42399999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>580.63800000000003</v>
+      </c>
+      <c r="D64">
+        <v>2555.902</v>
+      </c>
+      <c r="E64">
+        <v>982.99300000000005</v>
+      </c>
+      <c r="F64">
+        <v>2429.8180000000002</v>
+      </c>
+      <c r="G64">
+        <v>5914.4669999999996</v>
+      </c>
+      <c r="H64">
+        <v>19687.169999999998</v>
+      </c>
+      <c r="I64">
+        <v>431.87</v>
+      </c>
+      <c r="J64">
+        <v>7257.7049999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2209.6509999999998</v>
+      </c>
+      <c r="O64">
+        <v>10412.465</v>
+      </c>
+      <c r="P64">
+        <v>7257.7049999999999</v>
+      </c>
+      <c r="Q64">
+        <v>836.54100000000005</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>17600</v>
+      </c>
+      <c r="T64">
+        <v>9274.7049999999999</v>
+      </c>
+      <c r="U64">
+        <v>2693.7179999999998</v>
+      </c>
+      <c r="V64">
+        <v>1022.468</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>618.30899999999997</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-726.05200000000002</v>
+      </c>
+      <c r="AA64">
+        <v>580.63800000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>506.017</v>
+      </c>
+      <c r="D65">
+        <v>3690.5520000000001</v>
+      </c>
+      <c r="E65">
+        <v>1105.086</v>
+      </c>
+      <c r="F65">
+        <v>3589.0630000000001</v>
+      </c>
+      <c r="G65">
+        <v>5833.5820000000003</v>
+      </c>
+      <c r="H65">
+        <v>20033.784</v>
+      </c>
+      <c r="I65">
+        <v>494.60700000000003</v>
+      </c>
+      <c r="J65">
+        <v>6384.2089999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2905.9760000000001</v>
+      </c>
+      <c r="O65">
+        <v>10231.214</v>
+      </c>
+      <c r="P65">
+        <v>7345.1930000000002</v>
+      </c>
+      <c r="Q65">
+        <v>-271.41500000000002</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>18000</v>
+      </c>
+      <c r="T65">
+        <v>9802.57</v>
+      </c>
+      <c r="U65">
+        <v>2422.2689999999998</v>
+      </c>
+      <c r="V65">
+        <v>1519.943</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-230.28</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-1460.373</v>
+      </c>
+      <c r="AA65">
+        <v>506.017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>673.90800000000002</v>
+      </c>
+      <c r="D66">
+        <v>2348.433</v>
+      </c>
+      <c r="E66">
+        <v>860.11500000000001</v>
+      </c>
+      <c r="F66">
+        <v>2271.261</v>
+      </c>
+      <c r="G66">
+        <v>5401.5190000000002</v>
+      </c>
+      <c r="H66">
+        <v>19838.973000000002</v>
+      </c>
+      <c r="I66">
+        <v>419.108</v>
+      </c>
+      <c r="J66">
+        <v>6201.56</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2858.67</v>
+      </c>
+      <c r="O66">
+        <v>10018.831</v>
+      </c>
+      <c r="P66">
+        <v>7169.2939999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-341.11900000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>18500</v>
+      </c>
+      <c r="T66">
+        <v>9820.1419999999998</v>
+      </c>
+      <c r="U66">
+        <v>2081.0749999999998</v>
+      </c>
+      <c r="V66">
+        <v>1096.5619999999999</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-254.922</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-1071.932</v>
+      </c>
+      <c r="AA66">
+        <v>673.90800000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>455.62299999999999</v>
+      </c>
+      <c r="D67">
+        <v>2419.404</v>
+      </c>
+      <c r="E67">
+        <v>934.25400000000002</v>
+      </c>
+      <c r="F67">
+        <v>2339.0030000000002</v>
+      </c>
+      <c r="G67">
+        <v>6987.8819999999996</v>
+      </c>
+      <c r="H67">
+        <v>21994.252</v>
+      </c>
+      <c r="I67">
+        <v>407.57499999999999</v>
+      </c>
+      <c r="J67">
+        <v>7310.1229999999996</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N67">
+        <v>3248.1990000000001</v>
+      </c>
+      <c r="O67">
+        <v>11183.233</v>
+      </c>
+      <c r="P67">
+        <v>8284.6610000000001</v>
+      </c>
+      <c r="Q67">
+        <v>352.94099999999997</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>20500</v>
+      </c>
+      <c r="T67">
+        <v>10811.019</v>
+      </c>
+      <c r="U67">
+        <v>2434.02</v>
+      </c>
+      <c r="V67">
+        <v>380.61799999999999</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>843.4</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-822.24900000000002</v>
+      </c>
+      <c r="AA67">
+        <v>455.62299999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>720.20899999999995</v>
+      </c>
+      <c r="D68">
+        <v>3024.556</v>
+      </c>
+      <c r="E68">
+        <v>1230.6020000000001</v>
+      </c>
+      <c r="F68">
+        <v>2957.1309999999999</v>
+      </c>
+      <c r="G68">
+        <v>8272.57</v>
+      </c>
+      <c r="H68">
+        <v>23458.323</v>
+      </c>
+      <c r="I68">
+        <v>598.20000000000005</v>
+      </c>
+      <c r="J68">
+        <v>7581.2129999999997</v>
+      </c>
+      <c r="K68">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3756.9549999999999</v>
+      </c>
+      <c r="O68">
+        <v>11868.654</v>
+      </c>
+      <c r="P68">
+        <v>8485.2970000000005</v>
+      </c>
+      <c r="Q68">
+        <v>200.42500000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>22500</v>
+      </c>
+      <c r="T68">
+        <v>11589.669</v>
+      </c>
+      <c r="U68">
+        <v>2634.2640000000001</v>
+      </c>
+      <c r="V68">
+        <v>1221.2159999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-423.012</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-567.41800000000001</v>
+      </c>
+      <c r="AA68">
+        <v>720.20899999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1720.3910000000001</v>
+      </c>
+      <c r="D69">
+        <v>4434.0290000000005</v>
+      </c>
+      <c r="E69">
+        <v>1437.7619999999999</v>
+      </c>
+      <c r="F69">
+        <v>4379.848</v>
+      </c>
+      <c r="G69">
+        <v>9124.5949999999993</v>
+      </c>
+      <c r="H69">
+        <v>25789.111000000001</v>
+      </c>
+      <c r="I69">
+        <v>805.74</v>
+      </c>
+      <c r="J69">
+        <v>8737.58</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3624.2750000000001</v>
+      </c>
+      <c r="O69">
+        <v>12912.117</v>
+      </c>
+      <c r="P69">
+        <v>9637.3819999999996</v>
+      </c>
+      <c r="Q69">
+        <v>212.49799999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>23000</v>
+      </c>
+      <c r="T69">
+        <v>12876.994000000001</v>
+      </c>
+      <c r="U69">
+        <v>2846.3</v>
+      </c>
+      <c r="V69">
+        <v>1886.5909999999999</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>401.072</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-1476.894</v>
+      </c>
+      <c r="AA69">
+        <v>1720.3910000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-555.22299999999996</v>
+      </c>
+      <c r="D70">
+        <v>2803.011</v>
+      </c>
+      <c r="E70">
+        <v>1218</v>
+      </c>
+      <c r="F70">
+        <v>2763.018</v>
+      </c>
+      <c r="G70">
+        <v>9035</v>
+      </c>
+      <c r="H70">
+        <v>25451</v>
+      </c>
+      <c r="I70">
+        <v>668</v>
+      </c>
+      <c r="J70">
+        <v>8813</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3498</v>
+      </c>
+      <c r="O70">
+        <v>14190</v>
+      </c>
+      <c r="P70">
+        <v>9524</v>
+      </c>
+      <c r="Q70">
+        <v>-284.86399999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>22900</v>
+      </c>
+      <c r="T70">
+        <v>11261</v>
+      </c>
+      <c r="U70">
+        <v>2542</v>
+      </c>
+      <c r="V70">
+        <v>1173.575</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-900.46</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-494.43900000000002</v>
+      </c>
+      <c r="AA70">
+        <v>-555.22299999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>607</v>
+      </c>
+      <c r="D71">
+        <v>2928</v>
+      </c>
+      <c r="E71">
+        <v>1530.3209999999999</v>
+      </c>
+      <c r="F71">
+        <v>2429</v>
+      </c>
+      <c r="G71">
+        <v>9504.8639999999996</v>
+      </c>
+      <c r="H71">
+        <v>25018.959999999999</v>
+      </c>
+      <c r="I71">
+        <v>841.274</v>
+      </c>
+      <c r="J71">
+        <v>8043.3159999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1487</v>
+      </c>
+      <c r="N71">
+        <v>4447.3950000000004</v>
+      </c>
+      <c r="O71">
+        <v>14382.617</v>
+      </c>
+      <c r="P71">
+        <v>8984.973</v>
+      </c>
+      <c r="Q71">
+        <v>82</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>23000</v>
+      </c>
+      <c r="T71">
+        <v>10636.343000000001</v>
+      </c>
+      <c r="U71">
+        <v>2622.0859999999998</v>
+      </c>
+      <c r="V71">
+        <v>640</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-2205</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1767</v>
+      </c>
+      <c r="AA71">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>978</v>
+      </c>
+      <c r="D72">
+        <v>3537</v>
+      </c>
+      <c r="E72">
+        <v>1715.0550000000001</v>
+      </c>
+      <c r="F72">
+        <v>3015</v>
+      </c>
+      <c r="G72">
+        <v>10033.374</v>
+      </c>
+      <c r="H72">
+        <v>25296.253000000001</v>
+      </c>
+      <c r="I72">
+        <v>1053.509</v>
+      </c>
+      <c r="J72">
+        <v>7811.723</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5222.4840000000004</v>
+      </c>
+      <c r="O72">
+        <v>14823.620999999999</v>
+      </c>
+      <c r="P72">
+        <v>8762.9130000000005</v>
+      </c>
+      <c r="Q72">
+        <v>563</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>24000</v>
+      </c>
+      <c r="T72">
+        <v>10472.632</v>
+      </c>
+      <c r="U72">
+        <v>3186.665</v>
+      </c>
+      <c r="V72">
+        <v>1650</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-1183</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>370</v>
+      </c>
+      <c r="AA72">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1767</v>
+      </c>
+      <c r="D73">
+        <v>4849</v>
+      </c>
+      <c r="E73">
+        <v>1719.059</v>
+      </c>
+      <c r="F73">
+        <v>4312</v>
+      </c>
+      <c r="G73">
+        <v>9467.8469999999998</v>
+      </c>
+      <c r="H73">
+        <v>24370.475999999999</v>
+      </c>
+      <c r="I73">
+        <v>1174.5989999999999</v>
+      </c>
+      <c r="J73">
+        <v>8705.4009999999998</v>
+      </c>
+      <c r="K73">
+        <v>3.9</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3930.2240000000002</v>
+      </c>
+      <c r="O73">
+        <v>14418.665999999999</v>
+      </c>
+      <c r="P73">
+        <v>8709.3009999999995</v>
+      </c>
+      <c r="Q73">
+        <v>-214</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>24000</v>
+      </c>
+      <c r="T73">
+        <v>9951.81</v>
+      </c>
+      <c r="U73">
+        <v>2973.096</v>
+      </c>
+      <c r="V73">
+        <v>1964</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-2204</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>164</v>
+      </c>
+      <c r="AA73">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>646</v>
+      </c>
+      <c r="D74">
+        <v>3213</v>
+      </c>
+      <c r="E74">
+        <v>1523</v>
+      </c>
+      <c r="F74">
+        <v>4771</v>
+      </c>
+      <c r="G74">
+        <v>8407</v>
+      </c>
+      <c r="H74">
+        <v>22687</v>
+      </c>
+      <c r="I74">
+        <v>1134</v>
+      </c>
+      <c r="J74">
+        <v>8649</v>
+      </c>
+      <c r="K74">
+        <v>25</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3555</v>
+      </c>
+      <c r="O74">
+        <v>13902</v>
+      </c>
+      <c r="P74">
+        <v>8674</v>
+      </c>
+      <c r="Q74">
+        <v>-349</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>24500</v>
+      </c>
+      <c r="T74">
+        <v>8785</v>
+      </c>
+      <c r="U74">
+        <v>2624</v>
+      </c>
+      <c r="V74">
+        <v>1084</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-1839</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>629</v>
+      </c>
+      <c r="AA74">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>765</v>
+      </c>
+      <c r="D75">
+        <v>2837</v>
+      </c>
+      <c r="E75">
+        <v>1491</v>
+      </c>
+      <c r="F75">
+        <v>2336</v>
+      </c>
+      <c r="G75">
+        <v>7077</v>
+      </c>
+      <c r="H75">
+        <v>22366</v>
+      </c>
+      <c r="I75">
+        <v>934</v>
+      </c>
+      <c r="J75">
+        <v>7619</v>
+      </c>
+      <c r="K75">
+        <v>250</v>
+      </c>
+      <c r="L75">
+        <v>-25</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>5576</v>
+      </c>
+      <c r="O75">
+        <v>15451</v>
+      </c>
+      <c r="P75">
+        <v>9478</v>
+      </c>
+      <c r="Q75">
+        <v>-291</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>25600</v>
+      </c>
+      <c r="T75">
+        <v>6915</v>
+      </c>
+      <c r="U75">
+        <v>2334</v>
+      </c>
+      <c r="V75">
+        <v>150</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-2548</v>
+      </c>
+      <c r="Y75">
+        <v>488</v>
+      </c>
+      <c r="Z75">
+        <v>2220</v>
+      </c>
+      <c r="AA75">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>979</v>
+      </c>
+      <c r="D76">
+        <v>3850</v>
+      </c>
+      <c r="E76">
+        <v>1973</v>
+      </c>
+      <c r="F76">
+        <v>3231</v>
+      </c>
+      <c r="G76">
+        <v>10020</v>
+      </c>
+      <c r="H76">
+        <v>21494</v>
+      </c>
+      <c r="I76">
+        <v>1291</v>
+      </c>
+      <c r="J76">
+        <v>7686</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6349</v>
+      </c>
+      <c r="O76">
+        <v>16187</v>
+      </c>
+      <c r="P76">
+        <v>9310</v>
+      </c>
+      <c r="Q76">
+        <v>2922</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>26850</v>
+      </c>
+      <c r="T76">
+        <v>5307</v>
+      </c>
+      <c r="U76">
+        <v>5256</v>
+      </c>
+      <c r="V76">
+        <v>1787</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-2939</v>
+      </c>
+      <c r="Y76">
+        <v>495</v>
+      </c>
+      <c r="Z76">
+        <v>4177</v>
+      </c>
+      <c r="AA76">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1950</v>
+      </c>
+      <c r="D77">
+        <v>5040</v>
+      </c>
+      <c r="E77">
+        <v>1788</v>
+      </c>
+      <c r="F77">
+        <v>4474</v>
+      </c>
+      <c r="G77">
+        <v>10056</v>
+      </c>
+      <c r="H77">
+        <v>21446</v>
+      </c>
+      <c r="I77">
+        <v>1275</v>
+      </c>
+      <c r="J77">
+        <v>7512</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>5528</v>
+      </c>
+      <c r="O77">
+        <v>15495</v>
+      </c>
+      <c r="P77">
+        <v>9111</v>
+      </c>
+      <c r="Q77">
+        <v>1209</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>26500</v>
+      </c>
+      <c r="T77">
+        <v>5951</v>
+      </c>
+      <c r="U77">
+        <v>6466</v>
+      </c>
+      <c r="V77">
+        <v>1851</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-1389</v>
+      </c>
+      <c r="Y77">
+        <v>466</v>
+      </c>
+      <c r="Z77">
+        <v>847</v>
+      </c>
+      <c r="AA77">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1171</v>
+      </c>
+      <c r="D78">
+        <v>3339</v>
+      </c>
+      <c r="E78">
+        <v>1680</v>
+      </c>
+      <c r="F78">
+        <v>2777</v>
+      </c>
+      <c r="G78">
+        <v>9833</v>
+      </c>
+      <c r="H78">
+        <v>21402</v>
+      </c>
+      <c r="I78">
+        <v>1239</v>
+      </c>
+      <c r="J78">
+        <v>7640</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>5366</v>
+      </c>
+      <c r="O78">
+        <v>15469</v>
+      </c>
+      <c r="P78">
+        <v>9251</v>
+      </c>
+      <c r="Q78">
+        <v>-153</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>26400</v>
+      </c>
+      <c r="T78">
+        <v>5933</v>
+      </c>
+      <c r="U78">
+        <v>6312</v>
+      </c>
+      <c r="V78">
+        <v>1077</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-1344</v>
+      </c>
+      <c r="Y78">
+        <v>462</v>
+      </c>
+      <c r="Z78">
+        <v>183</v>
+      </c>
+      <c r="AA78">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-699</v>
+      </c>
+      <c r="D79">
+        <v>2288</v>
+      </c>
+      <c r="E79">
+        <v>667</v>
+      </c>
+      <c r="F79">
+        <v>1804</v>
+      </c>
+      <c r="G79">
+        <v>9260</v>
+      </c>
+      <c r="H79">
+        <v>17862</v>
+      </c>
+      <c r="I79">
+        <v>926</v>
+      </c>
+      <c r="J79">
+        <v>7557</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>4136</v>
+      </c>
+      <c r="O79">
+        <v>14031</v>
+      </c>
+      <c r="P79">
+        <v>9214</v>
+      </c>
+      <c r="Q79">
+        <v>51</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>27200</v>
+      </c>
+      <c r="T79">
+        <v>3831</v>
+      </c>
+      <c r="U79">
+        <v>6363</v>
+      </c>
+      <c r="V79">
+        <v>-380</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-1281</v>
+      </c>
+      <c r="Y79">
+        <v>438</v>
+      </c>
+      <c r="Z79">
+        <v>1813</v>
+      </c>
+      <c r="AA79">
+        <v>-699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>122</v>
+      </c>
+      <c r="D80">
+        <v>630</v>
+      </c>
+      <c r="E80">
+        <v>566</v>
+      </c>
+      <c r="F80">
+        <v>178</v>
+      </c>
+      <c r="G80">
+        <v>11453</v>
+      </c>
+      <c r="H80">
+        <v>20912</v>
+      </c>
+      <c r="I80">
+        <v>581</v>
+      </c>
+      <c r="J80">
+        <v>10633</v>
+      </c>
+      <c r="K80">
+        <v>56</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3909</v>
+      </c>
+      <c r="O80">
+        <v>16913</v>
+      </c>
+      <c r="P80">
+        <v>12312</v>
+      </c>
+      <c r="Q80">
+        <v>4040</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>25000</v>
+      </c>
+      <c r="T80">
+        <v>3999</v>
+      </c>
+      <c r="U80">
+        <v>10404</v>
+      </c>
+      <c r="V80">
+        <v>122</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>2874</v>
+      </c>
+      <c r="Y80">
+        <v>417</v>
+      </c>
+      <c r="Z80">
+        <v>1112</v>
+      </c>
+      <c r="AA80">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>801</v>
+      </c>
+      <c r="D81">
+        <v>2640</v>
+      </c>
+      <c r="E81">
+        <v>859</v>
+      </c>
+      <c r="F81">
+        <v>2123</v>
+      </c>
+      <c r="G81">
+        <v>12583</v>
+      </c>
+      <c r="H81">
+        <v>22145</v>
+      </c>
+      <c r="I81">
+        <v>1114</v>
+      </c>
+      <c r="J81">
+        <v>10829</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3968</v>
+      </c>
+      <c r="O81">
+        <v>17232</v>
+      </c>
+      <c r="P81">
+        <v>12451</v>
+      </c>
+      <c r="Q81">
+        <v>794</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>23000</v>
+      </c>
+      <c r="T81">
+        <v>4913</v>
+      </c>
+      <c r="U81">
+        <v>11197</v>
+      </c>
+      <c r="V81">
+        <v>920</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-61</v>
+      </c>
+      <c r="Y81">
+        <v>401</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-165</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1238</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>529</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>747</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>12206</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>21874</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>735</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>11029</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3425</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>16981</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>12539</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-635</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>20097</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4893</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>10562</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-577</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-4</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>366</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-2</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>-165</v>
       </c>
     </row>
